--- a/Madeta/Paletizace pytlů/Madeta1_CZ.xlsx
+++ b/Madeta/Paletizace pytlů/Madeta1_CZ.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MADETA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitez\Documents\GitHub\SOURCES\Madeta\Paletizace pytlů\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Signaly" sheetId="2" r:id="rId1"/>
     <sheet name="Řídící signály" sheetId="4" r:id="rId2"/>
     <sheet name="Chybove hlašky" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="177">
   <si>
     <t>Signál</t>
   </si>
@@ -554,12 +554,15 @@
   </si>
   <si>
     <t>Zmetkovy patel položen</t>
+  </si>
+  <si>
+    <t>Procesní porucha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1475,6 +1478,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1484,6 +1538,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1493,6 +1601,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,127 +1667,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,12 +1700,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,48 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1988,11 +1991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T68" sqref="T68"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,93 +2006,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2127,72 +2130,72 @@
       <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="127"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="74" t="s">
+      <c r="O7" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="76"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="127"/>
     </row>
     <row r="8" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="130"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="79"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="130"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2205,20 +2208,20 @@
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="96"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="92" t="s">
+      <c r="O9" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="93"/>
+      <c r="P9" s="132"/>
       <c r="Q9" s="5" t="s">
         <v>1</v>
       </c>
@@ -2231,18 +2234,18 @@
       <c r="T9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="94" t="s">
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="96"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="114"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="10">
@@ -2260,15 +2263,15 @@
       <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="90"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="70" t="s">
         <v>42</v>
       </c>
       <c r="P10" s="10">
@@ -2286,16 +2289,16 @@
       <c r="T10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="88"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="9">
         <v>102</v>
       </c>
@@ -2319,7 +2322,7 @@
       <c r="L11" s="83"/>
       <c r="M11" s="84"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="86"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="9">
         <v>102</v>
       </c>
@@ -2344,7 +2347,7 @@
       <c r="AA11" s="84"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="9">
         <v>103</v>
       </c>
@@ -2368,7 +2371,7 @@
       <c r="L12" s="83"/>
       <c r="M12" s="84"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="86"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="9">
         <v>103</v>
       </c>
@@ -2393,7 +2396,7 @@
       <c r="AA12" s="84"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="9">
         <v>104</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="L13" s="83"/>
       <c r="M13" s="84"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="86"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="9">
         <v>104</v>
       </c>
@@ -2442,7 +2445,7 @@
       <c r="AA13" s="84"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="9">
         <v>105</v>
       </c>
@@ -2466,7 +2469,7 @@
       <c r="L14" s="83"/>
       <c r="M14" s="84"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="86"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="9">
         <v>105</v>
       </c>
@@ -2491,7 +2494,7 @@
       <c r="AA14" s="84"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="9">
         <v>106</v>
       </c>
@@ -2515,7 +2518,7 @@
       <c r="L15" s="83"/>
       <c r="M15" s="84"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="86"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="9">
         <v>106</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="AA15" s="84"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="9">
         <v>107</v>
       </c>
@@ -2564,7 +2567,7 @@
       <c r="L16" s="83"/>
       <c r="M16" s="84"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="86"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="9">
         <v>107</v>
       </c>
@@ -2589,7 +2592,7 @@
       <c r="AA16" s="84"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="11">
         <v>108</v>
       </c>
@@ -2605,15 +2608,15 @@
       <c r="F17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="70"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="87"/>
+      <c r="O17" s="72"/>
       <c r="P17" s="11">
         <v>108</v>
       </c>
@@ -2629,16 +2632,16 @@
       <c r="T17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U17" s="68"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="70"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="87"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="10">
@@ -2656,15 +2659,15 @@
       <c r="F18" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="123"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="71" t="s">
         <v>42</v>
       </c>
       <c r="P18" s="10">
@@ -2682,16 +2685,16 @@
       <c r="T18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="U18" s="106"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="108"/>
+      <c r="U18" s="121"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="123"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="9">
         <v>110</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="L19" s="83"/>
       <c r="M19" s="84"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="86"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="9">
         <v>110</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="AA19" s="84"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="9">
         <v>111</v>
       </c>
@@ -2764,7 +2767,7 @@
       <c r="L20" s="83"/>
       <c r="M20" s="84"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="86"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="9">
         <v>111</v>
       </c>
@@ -2787,7 +2790,7 @@
       <c r="AA20" s="84"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="9">
         <v>112</v>
       </c>
@@ -2811,7 +2814,7 @@
       <c r="L21" s="83"/>
       <c r="M21" s="84"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="86"/>
+      <c r="O21" s="71"/>
       <c r="P21" s="9">
         <v>112</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="AA21" s="84"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="9">
         <v>113</v>
       </c>
@@ -2856,7 +2859,7 @@
       <c r="L22" s="83"/>
       <c r="M22" s="84"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="86"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="9">
         <v>113</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="AA22" s="84"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="9">
         <v>114</v>
       </c>
@@ -2901,7 +2904,7 @@
       <c r="L23" s="83"/>
       <c r="M23" s="84"/>
       <c r="N23" s="14"/>
-      <c r="O23" s="86"/>
+      <c r="O23" s="71"/>
       <c r="P23" s="9">
         <v>114</v>
       </c>
@@ -2924,7 +2927,7 @@
       <c r="AA23" s="84"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="9">
         <v>115</v>
       </c>
@@ -2946,7 +2949,7 @@
       <c r="L24" s="83"/>
       <c r="M24" s="84"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="86"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="9">
         <v>115</v>
       </c>
@@ -2971,7 +2974,7 @@
       <c r="AA24" s="84"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="11">
         <v>116</v>
       </c>
@@ -2985,15 +2988,15 @@
         <v>45</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="87"/>
+      <c r="O25" s="72"/>
       <c r="P25" s="11">
         <v>116</v>
       </c>
@@ -3009,16 +3012,16 @@
       <c r="T25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="U25" s="68"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="70"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="10">
@@ -3036,15 +3039,15 @@
       <c r="F26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="14"/>
-      <c r="O26" s="85" t="s">
+      <c r="O26" s="70" t="s">
         <v>42</v>
       </c>
       <c r="P26" s="10">
@@ -3060,16 +3063,16 @@
         <v>45</v>
       </c>
       <c r="T26" s="6"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="90"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="81"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="9">
         <v>118</v>
       </c>
@@ -3093,7 +3096,7 @@
       <c r="L27" s="83"/>
       <c r="M27" s="84"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="86"/>
+      <c r="O27" s="71"/>
       <c r="P27" s="9">
         <v>118</v>
       </c>
@@ -3116,7 +3119,7 @@
       <c r="AA27" s="84"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="9">
         <v>119</v>
       </c>
@@ -3140,7 +3143,7 @@
       <c r="L28" s="83"/>
       <c r="M28" s="84"/>
       <c r="N28" s="14"/>
-      <c r="O28" s="86"/>
+      <c r="O28" s="71"/>
       <c r="P28" s="9">
         <v>119</v>
       </c>
@@ -3163,7 +3166,7 @@
       <c r="AA28" s="84"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="9">
         <v>120</v>
       </c>
@@ -3187,7 +3190,7 @@
       <c r="L29" s="83"/>
       <c r="M29" s="84"/>
       <c r="N29" s="14"/>
-      <c r="O29" s="86"/>
+      <c r="O29" s="71"/>
       <c r="P29" s="9">
         <v>120</v>
       </c>
@@ -3210,7 +3213,7 @@
       <c r="AA29" s="84"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="9">
         <v>121</v>
       </c>
@@ -3234,7 +3237,7 @@
       <c r="L30" s="83"/>
       <c r="M30" s="84"/>
       <c r="N30" s="14"/>
-      <c r="O30" s="86"/>
+      <c r="O30" s="71"/>
       <c r="P30" s="9">
         <v>121</v>
       </c>
@@ -3257,7 +3260,7 @@
       <c r="AA30" s="84"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="9">
         <v>122</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="L31" s="83"/>
       <c r="M31" s="84"/>
       <c r="N31" s="14"/>
-      <c r="O31" s="86"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="9">
         <v>122</v>
       </c>
@@ -3304,7 +3307,7 @@
       <c r="AA31" s="84"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="9">
         <v>123</v>
       </c>
@@ -3328,7 +3331,7 @@
       <c r="L32" s="83"/>
       <c r="M32" s="84"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="86"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="9">
         <v>123</v>
       </c>
@@ -3351,7 +3354,7 @@
       <c r="AA32" s="84"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="11">
         <v>124</v>
       </c>
@@ -3367,15 +3370,15 @@
       <c r="F33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="87"/>
+      <c r="O33" s="72"/>
       <c r="P33" s="11">
         <v>124</v>
       </c>
@@ -3389,84 +3392,84 @@
         <v>45</v>
       </c>
       <c r="T33" s="8"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="70"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:27" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="126"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="74" t="s">
+      <c r="O35" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="76"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="126"/>
+      <c r="S35" s="126"/>
+      <c r="T35" s="126"/>
+      <c r="U35" s="126"/>
+      <c r="V35" s="126"/>
+      <c r="W35" s="126"/>
+      <c r="X35" s="126"/>
+      <c r="Y35" s="126"/>
+      <c r="Z35" s="126"/>
+      <c r="AA35" s="127"/>
     </row>
     <row r="36" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="79"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="130"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="79"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
+      <c r="U36" s="129"/>
+      <c r="V36" s="129"/>
+      <c r="W36" s="129"/>
+      <c r="X36" s="129"/>
+      <c r="Y36" s="129"/>
+      <c r="Z36" s="129"/>
+      <c r="AA36" s="130"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="81"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="23" t="s">
         <v>1</v>
       </c>
@@ -3479,20 +3482,20 @@
       <c r="F37" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="94" t="s">
+      <c r="G37" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="96"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="114"/>
       <c r="N37" s="13"/>
-      <c r="O37" s="80" t="s">
+      <c r="O37" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="P37" s="81"/>
+      <c r="P37" s="134"/>
       <c r="Q37" s="23" t="s">
         <v>1</v>
       </c>
@@ -3505,18 +3508,18 @@
       <c r="T37" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="94" t="s">
+      <c r="U37" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="96"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="113"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="114"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B38" s="40">
@@ -3534,15 +3537,15 @@
       <c r="F38" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="100"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="102"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="111"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="85" t="s">
+      <c r="O38" s="70" t="s">
         <v>102</v>
       </c>
       <c r="P38" s="40">
@@ -3560,18 +3563,18 @@
       <c r="T38" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U38" s="100" t="s">
+      <c r="U38" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="101"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="102"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="111"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
+      <c r="A39" s="71"/>
       <c r="B39" s="25">
         <v>202</v>
       </c>
@@ -3587,15 +3590,15 @@
       <c r="F39" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="73"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="108"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="86"/>
+      <c r="O39" s="71"/>
       <c r="P39" s="25">
         <v>202</v>
       </c>
@@ -3611,18 +3614,18 @@
       <c r="T39" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="U39" s="71" t="s">
+      <c r="U39" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="73"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="108"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="25">
         <v>203</v>
       </c>
@@ -3638,15 +3641,15 @@
       <c r="F40" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="73"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="108"/>
       <c r="N40" s="14"/>
-      <c r="O40" s="86"/>
+      <c r="O40" s="71"/>
       <c r="P40" s="25">
         <v>203</v>
       </c>
@@ -3662,16 +3665,16 @@
       <c r="T40" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="U40" s="71"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="73"/>
+      <c r="U40" s="106"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="108"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="71"/>
       <c r="B41" s="25">
         <v>204</v>
       </c>
@@ -3687,15 +3690,15 @@
       <c r="F41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="73"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="108"/>
       <c r="N41" s="14"/>
-      <c r="O41" s="86"/>
+      <c r="O41" s="71"/>
       <c r="P41" s="25">
         <v>204</v>
       </c>
@@ -3711,18 +3714,18 @@
       <c r="T41" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="U41" s="71" t="s">
+      <c r="U41" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="73"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="108"/>
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="27">
         <v>205</v>
       </c>
@@ -3738,15 +3741,15 @@
       <c r="F42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="73"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="108"/>
       <c r="N42" s="14"/>
-      <c r="O42" s="86"/>
+      <c r="O42" s="71"/>
       <c r="P42" s="27">
         <v>205</v>
       </c>
@@ -3762,16 +3765,16 @@
       <c r="T42" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="71"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="73"/>
+      <c r="U42" s="106"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="108"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="25">
         <v>206</v>
       </c>
@@ -3787,15 +3790,15 @@
       <c r="F43" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="73"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
       <c r="N43" s="14"/>
-      <c r="O43" s="86"/>
+      <c r="O43" s="71"/>
       <c r="P43" s="25">
         <v>206</v>
       </c>
@@ -3811,16 +3814,16 @@
       <c r="T43" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U43" s="71"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="73"/>
+      <c r="U43" s="106"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="108"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="25">
         <v>207</v>
       </c>
@@ -3836,15 +3839,15 @@
       <c r="F44" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="73"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="108"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="86"/>
+      <c r="O44" s="71"/>
       <c r="P44" s="25">
         <v>207</v>
       </c>
@@ -3860,16 +3863,16 @@
       <c r="T44" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="U44" s="71"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="73"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="108"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="41">
         <v>208</v>
       </c>
@@ -3885,15 +3888,15 @@
       <c r="F45" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="112"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="105"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="87"/>
+      <c r="O45" s="72"/>
       <c r="P45" s="41">
         <v>208</v>
       </c>
@@ -3909,16 +3912,16 @@
       <c r="T45" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="U45" s="112"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="114"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="105"/>
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B46" s="40">
@@ -3936,15 +3939,15 @@
       <c r="F46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="100"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="102"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="111"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="85" t="s">
+      <c r="O46" s="70" t="s">
         <v>102</v>
       </c>
       <c r="P46" s="40">
@@ -3962,16 +3965,16 @@
       <c r="T46" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="U46" s="100"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="102"/>
+      <c r="U46" s="109"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="111"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
+      <c r="A47" s="71"/>
       <c r="B47" s="25">
         <v>210</v>
       </c>
@@ -3987,15 +3990,15 @@
       <c r="F47" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="73"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="107"/>
+      <c r="L47" s="107"/>
+      <c r="M47" s="108"/>
       <c r="N47" s="14"/>
-      <c r="O47" s="86"/>
+      <c r="O47" s="71"/>
       <c r="P47" s="25">
         <v>210</v>
       </c>
@@ -4011,16 +4014,16 @@
       <c r="T47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U47" s="71"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="72"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="73"/>
+      <c r="U47" s="106"/>
+      <c r="V47" s="107"/>
+      <c r="W47" s="107"/>
+      <c r="X47" s="107"/>
+      <c r="Y47" s="107"/>
+      <c r="Z47" s="107"/>
+      <c r="AA47" s="108"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="71"/>
       <c r="B48" s="25">
         <v>211</v>
       </c>
@@ -4036,15 +4039,15 @@
       <c r="F48" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="73"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="108"/>
       <c r="N48" s="14"/>
-      <c r="O48" s="86"/>
+      <c r="O48" s="71"/>
       <c r="P48" s="25">
         <v>211</v>
       </c>
@@ -4060,16 +4063,16 @@
       <c r="T48" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="U48" s="71"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="72"/>
-      <c r="Z48" s="72"/>
-      <c r="AA48" s="73"/>
+      <c r="U48" s="106"/>
+      <c r="V48" s="107"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="107"/>
+      <c r="Y48" s="107"/>
+      <c r="Z48" s="107"/>
+      <c r="AA48" s="108"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="25">
         <v>212</v>
       </c>
@@ -4085,15 +4088,15 @@
       <c r="F49" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="73"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="108"/>
       <c r="N49" s="14"/>
-      <c r="O49" s="86"/>
+      <c r="O49" s="71"/>
       <c r="P49" s="25">
         <v>212</v>
       </c>
@@ -4109,18 +4112,18 @@
       <c r="T49" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="71" t="s">
+      <c r="U49" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="72"/>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="73"/>
+      <c r="V49" s="107"/>
+      <c r="W49" s="107"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="107"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="108"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="27">
         <v>213</v>
       </c>
@@ -4136,15 +4139,15 @@
       <c r="F50" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="73"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="108"/>
       <c r="N50" s="14"/>
-      <c r="O50" s="86"/>
+      <c r="O50" s="71"/>
       <c r="P50" s="27">
         <v>213</v>
       </c>
@@ -4158,16 +4161,16 @@
         <v>45</v>
       </c>
       <c r="T50" s="38"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="72"/>
-      <c r="AA50" s="73"/>
+      <c r="U50" s="106"/>
+      <c r="V50" s="107"/>
+      <c r="W50" s="107"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="108"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="86"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="25">
         <v>214</v>
       </c>
@@ -4183,15 +4186,15 @@
       <c r="F51" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="73"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="107"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="108"/>
       <c r="N51" s="14"/>
-      <c r="O51" s="86"/>
+      <c r="O51" s="71"/>
       <c r="P51" s="25">
         <v>214</v>
       </c>
@@ -4207,18 +4210,18 @@
       <c r="T51" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="U51" s="71" t="s">
+      <c r="U51" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="72"/>
-      <c r="Y51" s="72"/>
-      <c r="Z51" s="72"/>
-      <c r="AA51" s="73"/>
+      <c r="V51" s="107"/>
+      <c r="W51" s="107"/>
+      <c r="X51" s="107"/>
+      <c r="Y51" s="107"/>
+      <c r="Z51" s="107"/>
+      <c r="AA51" s="108"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="86"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="25">
         <v>215</v>
       </c>
@@ -4234,15 +4237,15 @@
       <c r="F52" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="103"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="105"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="117"/>
       <c r="N52" s="14"/>
-      <c r="O52" s="86"/>
+      <c r="O52" s="71"/>
       <c r="P52" s="25">
         <v>215</v>
       </c>
@@ -4258,18 +4261,18 @@
       <c r="T52" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="U52" s="71" t="s">
+      <c r="U52" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="V52" s="72"/>
-      <c r="W52" s="72"/>
-      <c r="X52" s="72"/>
-      <c r="Y52" s="72"/>
-      <c r="Z52" s="72"/>
-      <c r="AA52" s="73"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="107"/>
+      <c r="X52" s="107"/>
+      <c r="Y52" s="107"/>
+      <c r="Z52" s="107"/>
+      <c r="AA52" s="108"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="41">
         <v>216</v>
       </c>
@@ -4285,15 +4288,15 @@
       <c r="F53" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="112"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="114"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="105"/>
       <c r="N53" s="14"/>
-      <c r="O53" s="87"/>
+      <c r="O53" s="72"/>
       <c r="P53" s="41">
         <v>216</v>
       </c>
@@ -4309,16 +4312,16 @@
       <c r="T53" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="U53" s="112"/>
-      <c r="V53" s="113"/>
-      <c r="W53" s="113"/>
-      <c r="X53" s="113"/>
-      <c r="Y53" s="113"/>
-      <c r="Z53" s="113"/>
-      <c r="AA53" s="114"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="104"/>
+      <c r="W53" s="104"/>
+      <c r="X53" s="104"/>
+      <c r="Y53" s="104"/>
+      <c r="Z53" s="104"/>
+      <c r="AA53" s="105"/>
     </row>
     <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="40">
@@ -4336,16 +4339,16 @@
       <c r="F54" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="100" t="s">
+      <c r="G54" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
-      <c r="M54" s="102"/>
-      <c r="O54" s="85" t="s">
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="111"/>
+      <c r="O54" s="70" t="s">
         <v>102</v>
       </c>
       <c r="P54" s="40">
@@ -4363,18 +4366,18 @@
       <c r="T54" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="U54" s="88" t="s">
+      <c r="U54" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="V54" s="89"/>
-      <c r="W54" s="89"/>
-      <c r="X54" s="89"/>
-      <c r="Y54" s="89"/>
-      <c r="Z54" s="89"/>
-      <c r="AA54" s="90"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+      <c r="AA54" s="81"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="25">
         <v>218</v>
       </c>
@@ -4399,7 +4402,7 @@
       <c r="K55" s="83"/>
       <c r="L55" s="83"/>
       <c r="M55" s="84"/>
-      <c r="O55" s="86"/>
+      <c r="O55" s="71"/>
       <c r="P55" s="25">
         <v>218</v>
       </c>
@@ -4415,18 +4418,18 @@
       <c r="T55" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="U55" s="103" t="s">
+      <c r="U55" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="105"/>
+      <c r="V55" s="116"/>
+      <c r="W55" s="116"/>
+      <c r="X55" s="116"/>
+      <c r="Y55" s="116"/>
+      <c r="Z55" s="116"/>
+      <c r="AA55" s="117"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="25">
         <v>219</v>
       </c>
@@ -4451,7 +4454,7 @@
       <c r="K56" s="83"/>
       <c r="L56" s="83"/>
       <c r="M56" s="84"/>
-      <c r="O56" s="86"/>
+      <c r="O56" s="71"/>
       <c r="P56" s="25">
         <v>219</v>
       </c>
@@ -4467,18 +4470,18 @@
       <c r="T56" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="U56" s="71" t="s">
+      <c r="U56" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="V56" s="72"/>
-      <c r="W56" s="72"/>
-      <c r="X56" s="72"/>
-      <c r="Y56" s="72"/>
-      <c r="Z56" s="72"/>
-      <c r="AA56" s="73"/>
+      <c r="V56" s="107"/>
+      <c r="W56" s="107"/>
+      <c r="X56" s="107"/>
+      <c r="Y56" s="107"/>
+      <c r="Z56" s="107"/>
+      <c r="AA56" s="108"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="25">
         <v>220</v>
       </c>
@@ -4503,7 +4506,7 @@
       <c r="K57" s="83"/>
       <c r="L57" s="83"/>
       <c r="M57" s="84"/>
-      <c r="O57" s="86"/>
+      <c r="O57" s="71"/>
       <c r="P57" s="25">
         <v>220</v>
       </c>
@@ -4519,18 +4522,18 @@
       <c r="T57" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="U57" s="71" t="s">
+      <c r="U57" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="V57" s="72"/>
-      <c r="W57" s="72"/>
-      <c r="X57" s="72"/>
-      <c r="Y57" s="72"/>
-      <c r="Z57" s="72"/>
-      <c r="AA57" s="73"/>
+      <c r="V57" s="107"/>
+      <c r="W57" s="107"/>
+      <c r="X57" s="107"/>
+      <c r="Y57" s="107"/>
+      <c r="Z57" s="107"/>
+      <c r="AA57" s="108"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="27">
         <v>221</v>
       </c>
@@ -4555,7 +4558,7 @@
       <c r="K58" s="83"/>
       <c r="L58" s="83"/>
       <c r="M58" s="84"/>
-      <c r="O58" s="86"/>
+      <c r="O58" s="71"/>
       <c r="P58" s="27">
         <v>221</v>
       </c>
@@ -4571,16 +4574,16 @@
       <c r="T58" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="U58" s="71"/>
-      <c r="V58" s="72"/>
-      <c r="W58" s="72"/>
-      <c r="X58" s="72"/>
-      <c r="Y58" s="72"/>
-      <c r="Z58" s="72"/>
-      <c r="AA58" s="73"/>
+      <c r="U58" s="106"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
+      <c r="X58" s="107"/>
+      <c r="Y58" s="107"/>
+      <c r="Z58" s="107"/>
+      <c r="AA58" s="108"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="25">
         <v>222</v>
       </c>
@@ -4605,7 +4608,7 @@
       <c r="K59" s="83"/>
       <c r="L59" s="83"/>
       <c r="M59" s="84"/>
-      <c r="O59" s="86"/>
+      <c r="O59" s="71"/>
       <c r="P59" s="25">
         <v>222</v>
       </c>
@@ -4621,18 +4624,18 @@
       <c r="T59" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="U59" s="71" t="s">
+      <c r="U59" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="V59" s="72"/>
-      <c r="W59" s="72"/>
-      <c r="X59" s="72"/>
-      <c r="Y59" s="72"/>
-      <c r="Z59" s="72"/>
-      <c r="AA59" s="73"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+      <c r="X59" s="107"/>
+      <c r="Y59" s="107"/>
+      <c r="Z59" s="107"/>
+      <c r="AA59" s="108"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="65">
         <v>223</v>
       </c>
@@ -4657,7 +4660,7 @@
       <c r="K60" s="98"/>
       <c r="L60" s="98"/>
       <c r="M60" s="99"/>
-      <c r="O60" s="86"/>
+      <c r="O60" s="71"/>
       <c r="P60" s="25">
         <v>223</v>
       </c>
@@ -4673,18 +4676,18 @@
       <c r="T60" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="U60" s="71" t="s">
+      <c r="U60" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="V60" s="72"/>
-      <c r="W60" s="72"/>
-      <c r="X60" s="72"/>
-      <c r="Y60" s="72"/>
-      <c r="Z60" s="72"/>
-      <c r="AA60" s="73"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
+      <c r="Y60" s="107"/>
+      <c r="Z60" s="107"/>
+      <c r="AA60" s="108"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="41">
         <v>224</v>
       </c>
@@ -4700,16 +4703,16 @@
       <c r="F61" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="70"/>
-      <c r="O61" s="87"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="87"/>
+      <c r="O61" s="72"/>
       <c r="P61" s="41">
         <v>224</v>
       </c>
@@ -4725,16 +4728,16 @@
       <c r="T61" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="U61" s="112"/>
-      <c r="V61" s="113"/>
-      <c r="W61" s="113"/>
-      <c r="X61" s="113"/>
-      <c r="Y61" s="113"/>
-      <c r="Z61" s="113"/>
-      <c r="AA61" s="114"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="104"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="104"/>
+      <c r="Y61" s="104"/>
+      <c r="Z61" s="104"/>
+      <c r="AA61" s="105"/>
     </row>
     <row r="62" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="85" t="s">
+      <c r="A62" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="40">
@@ -4752,14 +4755,14 @@
       <c r="F62" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="90"/>
-      <c r="O62" s="85" t="s">
+      <c r="G62" s="79"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="80"/>
+      <c r="M62" s="81"/>
+      <c r="O62" s="70" t="s">
         <v>102</v>
       </c>
       <c r="P62" s="40">
@@ -4777,16 +4780,16 @@
       <c r="T62" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="U62" s="100"/>
-      <c r="V62" s="101"/>
-      <c r="W62" s="101"/>
-      <c r="X62" s="101"/>
-      <c r="Y62" s="101"/>
-      <c r="Z62" s="101"/>
-      <c r="AA62" s="102"/>
+      <c r="U62" s="109"/>
+      <c r="V62" s="110"/>
+      <c r="W62" s="110"/>
+      <c r="X62" s="110"/>
+      <c r="Y62" s="110"/>
+      <c r="Z62" s="110"/>
+      <c r="AA62" s="111"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="25">
         <v>226</v>
       </c>
@@ -4807,7 +4810,7 @@
       <c r="K63" s="83"/>
       <c r="L63" s="83"/>
       <c r="M63" s="84"/>
-      <c r="O63" s="86"/>
+      <c r="O63" s="71"/>
       <c r="P63" s="25">
         <v>226</v>
       </c>
@@ -4823,16 +4826,16 @@
       <c r="T63" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="U63" s="71"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="72"/>
-      <c r="Y63" s="72"/>
-      <c r="Z63" s="72"/>
-      <c r="AA63" s="73"/>
+      <c r="U63" s="106"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="108"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="25">
         <v>227</v>
       </c>
@@ -4853,7 +4856,7 @@
       <c r="K64" s="83"/>
       <c r="L64" s="83"/>
       <c r="M64" s="84"/>
-      <c r="O64" s="86"/>
+      <c r="O64" s="71"/>
       <c r="P64" s="25">
         <v>227</v>
       </c>
@@ -4869,16 +4872,16 @@
       <c r="T64" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="U64" s="71"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72"/>
-      <c r="Y64" s="72"/>
-      <c r="Z64" s="72"/>
-      <c r="AA64" s="73"/>
+      <c r="U64" s="106"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="108"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="25">
         <v>228</v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="K65" s="83"/>
       <c r="L65" s="83"/>
       <c r="M65" s="84"/>
-      <c r="O65" s="86"/>
+      <c r="O65" s="71"/>
       <c r="P65" s="25">
         <v>228</v>
       </c>
@@ -4915,16 +4918,16 @@
       <c r="T65" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="U65" s="71"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="72"/>
-      <c r="X65" s="72"/>
-      <c r="Y65" s="72"/>
-      <c r="Z65" s="72"/>
-      <c r="AA65" s="73"/>
+      <c r="U65" s="106"/>
+      <c r="V65" s="107"/>
+      <c r="W65" s="107"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="107"/>
+      <c r="AA65" s="108"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="27">
         <v>229</v>
       </c>
@@ -4945,7 +4948,7 @@
       <c r="K66" s="83"/>
       <c r="L66" s="83"/>
       <c r="M66" s="84"/>
-      <c r="O66" s="86"/>
+      <c r="O66" s="71"/>
       <c r="P66" s="27">
         <v>229</v>
       </c>
@@ -4970,7 +4973,7 @@
       <c r="AA66" s="84"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
+      <c r="A67" s="71"/>
       <c r="B67" s="25">
         <v>230</v>
       </c>
@@ -4991,7 +4994,7 @@
       <c r="K67" s="83"/>
       <c r="L67" s="83"/>
       <c r="M67" s="84"/>
-      <c r="O67" s="86"/>
+      <c r="O67" s="71"/>
       <c r="P67" s="25">
         <v>230</v>
       </c>
@@ -5004,7 +5007,9 @@
       <c r="S67" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T67" s="7"/>
+      <c r="T67" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="U67" s="82"/>
       <c r="V67" s="83"/>
       <c r="W67" s="83"/>
@@ -5014,7 +5019,7 @@
       <c r="AA67" s="84"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+      <c r="A68" s="71"/>
       <c r="B68" s="25">
         <v>231</v>
       </c>
@@ -5035,7 +5040,7 @@
       <c r="K68" s="83"/>
       <c r="L68" s="83"/>
       <c r="M68" s="84"/>
-      <c r="O68" s="86"/>
+      <c r="O68" s="71"/>
       <c r="P68" s="25">
         <v>231</v>
       </c>
@@ -5058,7 +5063,7 @@
       <c r="AA68" s="84"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="87"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="41">
         <v>232</v>
       </c>
@@ -5072,14 +5077,14 @@
         <v>45</v>
       </c>
       <c r="F69" s="8"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="69"/>
-      <c r="I69" s="69"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="69"/>
-      <c r="L69" s="69"/>
-      <c r="M69" s="70"/>
-      <c r="O69" s="87"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="87"/>
+      <c r="O69" s="72"/>
       <c r="P69" s="41">
         <v>232</v>
       </c>
@@ -5093,19 +5098,19 @@
         <v>45</v>
       </c>
       <c r="T69" s="8"/>
-      <c r="U69" s="68"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="70"/>
+      <c r="U69" s="85"/>
+      <c r="V69" s="86"/>
+      <c r="W69" s="86"/>
+      <c r="X69" s="86"/>
+      <c r="Y69" s="86"/>
+      <c r="Z69" s="86"/>
+      <c r="AA69" s="87"/>
     </row>
     <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="85" t="s">
+      <c r="A70" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="115" t="s">
+      <c r="B70" s="73" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -5117,20 +5122,20 @@
       <c r="E70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F70" s="109" t="s">
+      <c r="F70" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="88"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="89"/>
-      <c r="M70" s="90"/>
-      <c r="O70" s="85" t="s">
+      <c r="G70" s="79"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="81"/>
+      <c r="O70" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="P70" s="115" t="s">
+      <c r="P70" s="73" t="s">
         <v>98</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -5142,20 +5147,20 @@
       <c r="S70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T70" s="118" t="s">
+      <c r="T70" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="U70" s="88"/>
-      <c r="V70" s="89"/>
-      <c r="W70" s="89"/>
-      <c r="X70" s="89"/>
-      <c r="Y70" s="89"/>
-      <c r="Z70" s="89"/>
-      <c r="AA70" s="90"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="80"/>
+      <c r="W70" s="80"/>
+      <c r="X70" s="80"/>
+      <c r="Y70" s="80"/>
+      <c r="Z70" s="80"/>
+      <c r="AA70" s="81"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="116"/>
+      <c r="A71" s="71"/>
+      <c r="B71" s="74"/>
       <c r="C71" s="3" t="s">
         <v>45</v>
       </c>
@@ -5165,7 +5170,7 @@
       <c r="E71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="110"/>
+      <c r="F71" s="119"/>
       <c r="G71" s="82"/>
       <c r="H71" s="83"/>
       <c r="I71" s="83"/>
@@ -5173,8 +5178,8 @@
       <c r="K71" s="83"/>
       <c r="L71" s="83"/>
       <c r="M71" s="84"/>
-      <c r="O71" s="86"/>
-      <c r="P71" s="116"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="74"/>
       <c r="Q71" s="3" t="s">
         <v>45</v>
       </c>
@@ -5184,7 +5189,7 @@
       <c r="S71" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T71" s="119"/>
+      <c r="T71" s="77"/>
       <c r="U71" s="82"/>
       <c r="V71" s="83"/>
       <c r="W71" s="83"/>
@@ -5194,8 +5199,8 @@
       <c r="AA71" s="84"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
-      <c r="B72" s="116"/>
+      <c r="A72" s="71"/>
+      <c r="B72" s="74"/>
       <c r="C72" s="3" t="s">
         <v>45</v>
       </c>
@@ -5205,7 +5210,7 @@
       <c r="E72" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="110"/>
+      <c r="F72" s="119"/>
       <c r="G72" s="82"/>
       <c r="H72" s="83"/>
       <c r="I72" s="83"/>
@@ -5213,8 +5218,8 @@
       <c r="K72" s="83"/>
       <c r="L72" s="83"/>
       <c r="M72" s="84"/>
-      <c r="O72" s="86"/>
-      <c r="P72" s="116"/>
+      <c r="O72" s="71"/>
+      <c r="P72" s="74"/>
       <c r="Q72" s="3" t="s">
         <v>45</v>
       </c>
@@ -5224,7 +5229,7 @@
       <c r="S72" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T72" s="119"/>
+      <c r="T72" s="77"/>
       <c r="U72" s="82"/>
       <c r="V72" s="83"/>
       <c r="W72" s="83"/>
@@ -5234,8 +5239,8 @@
       <c r="AA72" s="84"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="116"/>
+      <c r="A73" s="71"/>
+      <c r="B73" s="74"/>
       <c r="C73" s="3" t="s">
         <v>45</v>
       </c>
@@ -5245,7 +5250,7 @@
       <c r="E73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="110"/>
+      <c r="F73" s="119"/>
       <c r="G73" s="82"/>
       <c r="H73" s="83"/>
       <c r="I73" s="83"/>
@@ -5253,8 +5258,8 @@
       <c r="K73" s="83"/>
       <c r="L73" s="83"/>
       <c r="M73" s="84"/>
-      <c r="O73" s="86"/>
-      <c r="P73" s="116"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="74"/>
       <c r="Q73" s="3" t="s">
         <v>45</v>
       </c>
@@ -5264,7 +5269,7 @@
       <c r="S73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T73" s="119"/>
+      <c r="T73" s="77"/>
       <c r="U73" s="82"/>
       <c r="V73" s="83"/>
       <c r="W73" s="83"/>
@@ -5274,8 +5279,8 @@
       <c r="AA73" s="84"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
-      <c r="B74" s="116"/>
+      <c r="A74" s="71"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="3" t="s">
         <v>45</v>
       </c>
@@ -5285,7 +5290,7 @@
       <c r="E74" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="110"/>
+      <c r="F74" s="119"/>
       <c r="G74" s="82"/>
       <c r="H74" s="83"/>
       <c r="I74" s="83"/>
@@ -5293,8 +5298,8 @@
       <c r="K74" s="83"/>
       <c r="L74" s="83"/>
       <c r="M74" s="84"/>
-      <c r="O74" s="86"/>
-      <c r="P74" s="116"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="74"/>
       <c r="Q74" s="3" t="s">
         <v>45</v>
       </c>
@@ -5304,7 +5309,7 @@
       <c r="S74" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T74" s="119"/>
+      <c r="T74" s="77"/>
       <c r="U74" s="82"/>
       <c r="V74" s="83"/>
       <c r="W74" s="83"/>
@@ -5314,8 +5319,8 @@
       <c r="AA74" s="84"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="116"/>
+      <c r="A75" s="71"/>
+      <c r="B75" s="74"/>
       <c r="C75" s="3" t="s">
         <v>45</v>
       </c>
@@ -5325,7 +5330,7 @@
       <c r="E75" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F75" s="110"/>
+      <c r="F75" s="119"/>
       <c r="G75" s="82"/>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -5333,8 +5338,8 @@
       <c r="K75" s="83"/>
       <c r="L75" s="83"/>
       <c r="M75" s="84"/>
-      <c r="O75" s="86"/>
-      <c r="P75" s="116"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="74"/>
       <c r="Q75" s="3" t="s">
         <v>45</v>
       </c>
@@ -5344,7 +5349,7 @@
       <c r="S75" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T75" s="119"/>
+      <c r="T75" s="77"/>
       <c r="U75" s="82"/>
       <c r="V75" s="83"/>
       <c r="W75" s="83"/>
@@ -5354,8 +5359,8 @@
       <c r="AA75" s="84"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
-      <c r="B76" s="116"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="74"/>
       <c r="C76" s="3" t="s">
         <v>45</v>
       </c>
@@ -5365,7 +5370,7 @@
       <c r="E76" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="110"/>
+      <c r="F76" s="119"/>
       <c r="G76" s="82"/>
       <c r="H76" s="83"/>
       <c r="I76" s="83"/>
@@ -5373,8 +5378,8 @@
       <c r="K76" s="83"/>
       <c r="L76" s="83"/>
       <c r="M76" s="84"/>
-      <c r="O76" s="86"/>
-      <c r="P76" s="116"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="74"/>
       <c r="Q76" s="3" t="s">
         <v>45</v>
       </c>
@@ -5384,7 +5389,7 @@
       <c r="S76" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T76" s="119"/>
+      <c r="T76" s="77"/>
       <c r="U76" s="82"/>
       <c r="V76" s="83"/>
       <c r="W76" s="83"/>
@@ -5394,8 +5399,8 @@
       <c r="AA76" s="84"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="87"/>
-      <c r="B77" s="117"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="75"/>
       <c r="C77" s="4" t="s">
         <v>45</v>
       </c>
@@ -5405,16 +5410,16 @@
       <c r="E77" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F77" s="111"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="70"/>
-      <c r="O77" s="87"/>
-      <c r="P77" s="117"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="86"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="87"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="75"/>
       <c r="Q77" s="4" t="s">
         <v>45</v>
       </c>
@@ -5424,20 +5429,20 @@
       <c r="S77" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T77" s="120"/>
-      <c r="U77" s="68"/>
-      <c r="V77" s="69"/>
-      <c r="W77" s="69"/>
-      <c r="X77" s="69"/>
-      <c r="Y77" s="69"/>
-      <c r="Z77" s="69"/>
-      <c r="AA77" s="70"/>
+      <c r="T77" s="78"/>
+      <c r="U77" s="85"/>
+      <c r="V77" s="86"/>
+      <c r="W77" s="86"/>
+      <c r="X77" s="86"/>
+      <c r="Y77" s="86"/>
+      <c r="Z77" s="86"/>
+      <c r="AA77" s="87"/>
     </row>
     <row r="78" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B78" s="115" t="s">
+      <c r="B78" s="73" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -5449,20 +5454,20 @@
       <c r="E78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F78" s="118" t="s">
+      <c r="F78" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="G78" s="88"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="89"/>
-      <c r="M78" s="90"/>
-      <c r="O78" s="85" t="s">
+      <c r="G78" s="79"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="81"/>
+      <c r="O78" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P78" s="115" t="s">
+      <c r="P78" s="73" t="s">
         <v>99</v>
       </c>
       <c r="Q78" s="2" t="s">
@@ -5474,20 +5479,20 @@
       <c r="S78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T78" s="118" t="s">
+      <c r="T78" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="U78" s="88"/>
-      <c r="V78" s="89"/>
-      <c r="W78" s="89"/>
-      <c r="X78" s="89"/>
-      <c r="Y78" s="89"/>
-      <c r="Z78" s="89"/>
-      <c r="AA78" s="90"/>
+      <c r="U78" s="79"/>
+      <c r="V78" s="80"/>
+      <c r="W78" s="80"/>
+      <c r="X78" s="80"/>
+      <c r="Y78" s="80"/>
+      <c r="Z78" s="80"/>
+      <c r="AA78" s="81"/>
     </row>
     <row r="79" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="86"/>
-      <c r="B79" s="116"/>
+      <c r="A79" s="71"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="3" t="s">
         <v>45</v>
       </c>
@@ -5497,7 +5502,7 @@
       <c r="E79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F79" s="119"/>
+      <c r="F79" s="77"/>
       <c r="G79" s="82"/>
       <c r="H79" s="83"/>
       <c r="I79" s="83"/>
@@ -5505,8 +5510,8 @@
       <c r="K79" s="83"/>
       <c r="L79" s="83"/>
       <c r="M79" s="84"/>
-      <c r="O79" s="86"/>
-      <c r="P79" s="116"/>
+      <c r="O79" s="71"/>
+      <c r="P79" s="74"/>
       <c r="Q79" s="3" t="s">
         <v>45</v>
       </c>
@@ -5516,7 +5521,7 @@
       <c r="S79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T79" s="119"/>
+      <c r="T79" s="77"/>
       <c r="U79" s="82"/>
       <c r="V79" s="83"/>
       <c r="W79" s="83"/>
@@ -5526,8 +5531,8 @@
       <c r="AA79" s="84"/>
     </row>
     <row r="80" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
-      <c r="B80" s="116"/>
+      <c r="A80" s="71"/>
+      <c r="B80" s="74"/>
       <c r="C80" s="3" t="s">
         <v>45</v>
       </c>
@@ -5537,7 +5542,7 @@
       <c r="E80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F80" s="119"/>
+      <c r="F80" s="77"/>
       <c r="G80" s="82"/>
       <c r="H80" s="83"/>
       <c r="I80" s="83"/>
@@ -5545,8 +5550,8 @@
       <c r="K80" s="83"/>
       <c r="L80" s="83"/>
       <c r="M80" s="84"/>
-      <c r="O80" s="86"/>
-      <c r="P80" s="116"/>
+      <c r="O80" s="71"/>
+      <c r="P80" s="74"/>
       <c r="Q80" s="3" t="s">
         <v>45</v>
       </c>
@@ -5556,7 +5561,7 @@
       <c r="S80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T80" s="119"/>
+      <c r="T80" s="77"/>
       <c r="U80" s="82"/>
       <c r="V80" s="83"/>
       <c r="W80" s="83"/>
@@ -5566,8 +5571,8 @@
       <c r="AA80" s="84"/>
     </row>
     <row r="81" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="116"/>
+      <c r="A81" s="71"/>
+      <c r="B81" s="74"/>
       <c r="C81" s="3" t="s">
         <v>45</v>
       </c>
@@ -5577,7 +5582,7 @@
       <c r="E81" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="119"/>
+      <c r="F81" s="77"/>
       <c r="G81" s="82"/>
       <c r="H81" s="83"/>
       <c r="I81" s="83"/>
@@ -5585,8 +5590,8 @@
       <c r="K81" s="83"/>
       <c r="L81" s="83"/>
       <c r="M81" s="84"/>
-      <c r="O81" s="86"/>
-      <c r="P81" s="116"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="74"/>
       <c r="Q81" s="3" t="s">
         <v>45</v>
       </c>
@@ -5596,7 +5601,7 @@
       <c r="S81" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T81" s="119"/>
+      <c r="T81" s="77"/>
       <c r="U81" s="82"/>
       <c r="V81" s="83"/>
       <c r="W81" s="83"/>
@@ -5606,8 +5611,8 @@
       <c r="AA81" s="84"/>
     </row>
     <row r="82" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="116"/>
+      <c r="A82" s="71"/>
+      <c r="B82" s="74"/>
       <c r="C82" s="3" t="s">
         <v>45</v>
       </c>
@@ -5617,7 +5622,7 @@
       <c r="E82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F82" s="119"/>
+      <c r="F82" s="77"/>
       <c r="G82" s="82"/>
       <c r="H82" s="83"/>
       <c r="I82" s="83"/>
@@ -5625,8 +5630,8 @@
       <c r="K82" s="83"/>
       <c r="L82" s="83"/>
       <c r="M82" s="84"/>
-      <c r="O82" s="86"/>
-      <c r="P82" s="116"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="74"/>
       <c r="Q82" s="3" t="s">
         <v>45</v>
       </c>
@@ -5636,7 +5641,7 @@
       <c r="S82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T82" s="119"/>
+      <c r="T82" s="77"/>
       <c r="U82" s="82"/>
       <c r="V82" s="83"/>
       <c r="W82" s="83"/>
@@ -5646,8 +5651,8 @@
       <c r="AA82" s="84"/>
     </row>
     <row r="83" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
-      <c r="B83" s="116"/>
+      <c r="A83" s="71"/>
+      <c r="B83" s="74"/>
       <c r="C83" s="3" t="s">
         <v>45</v>
       </c>
@@ -5657,7 +5662,7 @@
       <c r="E83" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="119"/>
+      <c r="F83" s="77"/>
       <c r="G83" s="82"/>
       <c r="H83" s="83"/>
       <c r="I83" s="83"/>
@@ -5665,8 +5670,8 @@
       <c r="K83" s="83"/>
       <c r="L83" s="83"/>
       <c r="M83" s="84"/>
-      <c r="O83" s="86"/>
-      <c r="P83" s="116"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="74"/>
       <c r="Q83" s="3" t="s">
         <v>45</v>
       </c>
@@ -5676,7 +5681,7 @@
       <c r="S83" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T83" s="119"/>
+      <c r="T83" s="77"/>
       <c r="U83" s="82"/>
       <c r="V83" s="83"/>
       <c r="W83" s="83"/>
@@ -5686,8 +5691,8 @@
       <c r="AA83" s="84"/>
     </row>
     <row r="84" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
-      <c r="B84" s="116"/>
+      <c r="A84" s="71"/>
+      <c r="B84" s="74"/>
       <c r="C84" s="3" t="s">
         <v>45</v>
       </c>
@@ -5697,7 +5702,7 @@
       <c r="E84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F84" s="119"/>
+      <c r="F84" s="77"/>
       <c r="G84" s="82"/>
       <c r="H84" s="83"/>
       <c r="I84" s="83"/>
@@ -5705,8 +5710,8 @@
       <c r="K84" s="83"/>
       <c r="L84" s="83"/>
       <c r="M84" s="84"/>
-      <c r="O84" s="86"/>
-      <c r="P84" s="116"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="74"/>
       <c r="Q84" s="3" t="s">
         <v>45</v>
       </c>
@@ -5716,7 +5721,7 @@
       <c r="S84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T84" s="119"/>
+      <c r="T84" s="77"/>
       <c r="U84" s="82"/>
       <c r="V84" s="83"/>
       <c r="W84" s="83"/>
@@ -5726,8 +5731,8 @@
       <c r="AA84" s="84"/>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="87"/>
-      <c r="B85" s="117"/>
+      <c r="A85" s="72"/>
+      <c r="B85" s="75"/>
       <c r="C85" s="4" t="s">
         <v>45</v>
       </c>
@@ -5737,16 +5742,16 @@
       <c r="E85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F85" s="120"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="69"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="69"/>
-      <c r="M85" s="70"/>
-      <c r="O85" s="87"/>
-      <c r="P85" s="117"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="86"/>
+      <c r="L85" s="86"/>
+      <c r="M85" s="87"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="75"/>
       <c r="Q85" s="4" t="s">
         <v>45</v>
       </c>
@@ -5756,20 +5761,20 @@
       <c r="S85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T85" s="120"/>
-      <c r="U85" s="68"/>
-      <c r="V85" s="69"/>
-      <c r="W85" s="69"/>
-      <c r="X85" s="69"/>
-      <c r="Y85" s="69"/>
-      <c r="Z85" s="69"/>
-      <c r="AA85" s="70"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="85"/>
+      <c r="V85" s="86"/>
+      <c r="W85" s="86"/>
+      <c r="X85" s="86"/>
+      <c r="Y85" s="86"/>
+      <c r="Z85" s="86"/>
+      <c r="AA85" s="87"/>
     </row>
     <row r="86" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="115" t="s">
+      <c r="B86" s="73" t="s">
         <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -5781,20 +5786,20 @@
       <c r="E86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="118" t="s">
+      <c r="F86" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="G86" s="88"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="89"/>
-      <c r="M86" s="90"/>
-      <c r="O86" s="85" t="s">
+      <c r="G86" s="79"/>
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="80"/>
+      <c r="M86" s="81"/>
+      <c r="O86" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P86" s="115" t="s">
+      <c r="P86" s="73" t="s">
         <v>100</v>
       </c>
       <c r="Q86" s="2" t="s">
@@ -5806,20 +5811,20 @@
       <c r="S86" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T86" s="118" t="s">
+      <c r="T86" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="U86" s="88"/>
-      <c r="V86" s="89"/>
-      <c r="W86" s="89"/>
-      <c r="X86" s="89"/>
-      <c r="Y86" s="89"/>
-      <c r="Z86" s="89"/>
-      <c r="AA86" s="90"/>
+      <c r="U86" s="79"/>
+      <c r="V86" s="80"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="80"/>
+      <c r="Y86" s="80"/>
+      <c r="Z86" s="80"/>
+      <c r="AA86" s="81"/>
     </row>
     <row r="87" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
-      <c r="B87" s="116"/>
+      <c r="A87" s="71"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="3" t="s">
         <v>45</v>
       </c>
@@ -5829,7 +5834,7 @@
       <c r="E87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F87" s="119"/>
+      <c r="F87" s="77"/>
       <c r="G87" s="82"/>
       <c r="H87" s="83"/>
       <c r="I87" s="83"/>
@@ -5837,8 +5842,8 @@
       <c r="K87" s="83"/>
       <c r="L87" s="83"/>
       <c r="M87" s="84"/>
-      <c r="O87" s="86"/>
-      <c r="P87" s="116"/>
+      <c r="O87" s="71"/>
+      <c r="P87" s="74"/>
       <c r="Q87" s="3" t="s">
         <v>45</v>
       </c>
@@ -5848,7 +5853,7 @@
       <c r="S87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T87" s="119"/>
+      <c r="T87" s="77"/>
       <c r="U87" s="82"/>
       <c r="V87" s="83"/>
       <c r="W87" s="83"/>
@@ -5858,8 +5863,8 @@
       <c r="AA87" s="84"/>
     </row>
     <row r="88" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
-      <c r="B88" s="116"/>
+      <c r="A88" s="71"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="3" t="s">
         <v>45</v>
       </c>
@@ -5869,7 +5874,7 @@
       <c r="E88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F88" s="119"/>
+      <c r="F88" s="77"/>
       <c r="G88" s="82"/>
       <c r="H88" s="83"/>
       <c r="I88" s="83"/>
@@ -5877,8 +5882,8 @@
       <c r="K88" s="83"/>
       <c r="L88" s="83"/>
       <c r="M88" s="84"/>
-      <c r="O88" s="86"/>
-      <c r="P88" s="116"/>
+      <c r="O88" s="71"/>
+      <c r="P88" s="74"/>
       <c r="Q88" s="3" t="s">
         <v>45</v>
       </c>
@@ -5888,7 +5893,7 @@
       <c r="S88" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T88" s="119"/>
+      <c r="T88" s="77"/>
       <c r="U88" s="82"/>
       <c r="V88" s="83"/>
       <c r="W88" s="83"/>
@@ -5898,8 +5903,8 @@
       <c r="AA88" s="84"/>
     </row>
     <row r="89" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
-      <c r="B89" s="116"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="74"/>
       <c r="C89" s="3" t="s">
         <v>45</v>
       </c>
@@ -5909,7 +5914,7 @@
       <c r="E89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="119"/>
+      <c r="F89" s="77"/>
       <c r="G89" s="82"/>
       <c r="H89" s="83"/>
       <c r="I89" s="83"/>
@@ -5917,8 +5922,8 @@
       <c r="K89" s="83"/>
       <c r="L89" s="83"/>
       <c r="M89" s="84"/>
-      <c r="O89" s="86"/>
-      <c r="P89" s="116"/>
+      <c r="O89" s="71"/>
+      <c r="P89" s="74"/>
       <c r="Q89" s="3" t="s">
         <v>45</v>
       </c>
@@ -5928,7 +5933,7 @@
       <c r="S89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T89" s="119"/>
+      <c r="T89" s="77"/>
       <c r="U89" s="82"/>
       <c r="V89" s="83"/>
       <c r="W89" s="83"/>
@@ -5938,8 +5943,8 @@
       <c r="AA89" s="84"/>
     </row>
     <row r="90" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
-      <c r="B90" s="116"/>
+      <c r="A90" s="71"/>
+      <c r="B90" s="74"/>
       <c r="C90" s="3" t="s">
         <v>45</v>
       </c>
@@ -5949,7 +5954,7 @@
       <c r="E90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="119"/>
+      <c r="F90" s="77"/>
       <c r="G90" s="82"/>
       <c r="H90" s="83"/>
       <c r="I90" s="83"/>
@@ -5957,8 +5962,8 @@
       <c r="K90" s="83"/>
       <c r="L90" s="83"/>
       <c r="M90" s="84"/>
-      <c r="O90" s="86"/>
-      <c r="P90" s="116"/>
+      <c r="O90" s="71"/>
+      <c r="P90" s="74"/>
       <c r="Q90" s="3" t="s">
         <v>45</v>
       </c>
@@ -5968,7 +5973,7 @@
       <c r="S90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T90" s="119"/>
+      <c r="T90" s="77"/>
       <c r="U90" s="82"/>
       <c r="V90" s="83"/>
       <c r="W90" s="83"/>
@@ -5978,8 +5983,8 @@
       <c r="AA90" s="84"/>
     </row>
     <row r="91" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
-      <c r="B91" s="116"/>
+      <c r="A91" s="71"/>
+      <c r="B91" s="74"/>
       <c r="C91" s="3" t="s">
         <v>45</v>
       </c>
@@ -5989,7 +5994,7 @@
       <c r="E91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F91" s="119"/>
+      <c r="F91" s="77"/>
       <c r="G91" s="82"/>
       <c r="H91" s="83"/>
       <c r="I91" s="83"/>
@@ -5997,8 +6002,8 @@
       <c r="K91" s="83"/>
       <c r="L91" s="83"/>
       <c r="M91" s="84"/>
-      <c r="O91" s="86"/>
-      <c r="P91" s="116"/>
+      <c r="O91" s="71"/>
+      <c r="P91" s="74"/>
       <c r="Q91" s="3" t="s">
         <v>45</v>
       </c>
@@ -6008,7 +6013,7 @@
       <c r="S91" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T91" s="119"/>
+      <c r="T91" s="77"/>
       <c r="U91" s="82"/>
       <c r="V91" s="83"/>
       <c r="W91" s="83"/>
@@ -6018,8 +6023,8 @@
       <c r="AA91" s="84"/>
     </row>
     <row r="92" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
-      <c r="B92" s="116"/>
+      <c r="A92" s="71"/>
+      <c r="B92" s="74"/>
       <c r="C92" s="3" t="s">
         <v>45</v>
       </c>
@@ -6029,7 +6034,7 @@
       <c r="E92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F92" s="119"/>
+      <c r="F92" s="77"/>
       <c r="G92" s="82"/>
       <c r="H92" s="83"/>
       <c r="I92" s="83"/>
@@ -6037,8 +6042,8 @@
       <c r="K92" s="83"/>
       <c r="L92" s="83"/>
       <c r="M92" s="84"/>
-      <c r="O92" s="86"/>
-      <c r="P92" s="116"/>
+      <c r="O92" s="71"/>
+      <c r="P92" s="74"/>
       <c r="Q92" s="3" t="s">
         <v>45</v>
       </c>
@@ -6048,7 +6053,7 @@
       <c r="S92" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T92" s="119"/>
+      <c r="T92" s="77"/>
       <c r="U92" s="82"/>
       <c r="V92" s="83"/>
       <c r="W92" s="83"/>
@@ -6058,8 +6063,8 @@
       <c r="AA92" s="84"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="87"/>
-      <c r="B93" s="117"/>
+      <c r="A93" s="72"/>
+      <c r="B93" s="75"/>
       <c r="C93" s="4" t="s">
         <v>45</v>
       </c>
@@ -6069,16 +6074,16 @@
       <c r="E93" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F93" s="120"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="69"/>
-      <c r="I93" s="69"/>
-      <c r="J93" s="69"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="70"/>
-      <c r="O93" s="87"/>
-      <c r="P93" s="117"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
+      <c r="I93" s="86"/>
+      <c r="J93" s="86"/>
+      <c r="K93" s="86"/>
+      <c r="L93" s="86"/>
+      <c r="M93" s="87"/>
+      <c r="O93" s="72"/>
+      <c r="P93" s="75"/>
       <c r="Q93" s="4" t="s">
         <v>45</v>
       </c>
@@ -6088,20 +6093,20 @@
       <c r="S93" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T93" s="120"/>
-      <c r="U93" s="68"/>
-      <c r="V93" s="69"/>
-      <c r="W93" s="69"/>
-      <c r="X93" s="69"/>
-      <c r="Y93" s="69"/>
-      <c r="Z93" s="69"/>
-      <c r="AA93" s="70"/>
+      <c r="T93" s="78"/>
+      <c r="U93" s="85"/>
+      <c r="V93" s="86"/>
+      <c r="W93" s="86"/>
+      <c r="X93" s="86"/>
+      <c r="Y93" s="86"/>
+      <c r="Z93" s="86"/>
+      <c r="AA93" s="87"/>
     </row>
     <row r="94" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B94" s="115" t="s">
+      <c r="B94" s="73" t="s">
         <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -6113,20 +6118,20 @@
       <c r="E94" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="118" t="s">
+      <c r="F94" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="G94" s="88"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="89"/>
-      <c r="M94" s="90"/>
-      <c r="O94" s="85" t="s">
+      <c r="G94" s="79"/>
+      <c r="H94" s="80"/>
+      <c r="I94" s="80"/>
+      <c r="J94" s="80"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="80"/>
+      <c r="M94" s="81"/>
+      <c r="O94" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P94" s="115" t="s">
+      <c r="P94" s="73" t="s">
         <v>104</v>
       </c>
       <c r="Q94" s="2" t="s">
@@ -6138,20 +6143,20 @@
       <c r="S94" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T94" s="118" t="s">
+      <c r="T94" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="U94" s="88"/>
-      <c r="V94" s="89"/>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="89"/>
-      <c r="AA94" s="90"/>
+      <c r="U94" s="79"/>
+      <c r="V94" s="80"/>
+      <c r="W94" s="80"/>
+      <c r="X94" s="80"/>
+      <c r="Y94" s="80"/>
+      <c r="Z94" s="80"/>
+      <c r="AA94" s="81"/>
     </row>
     <row r="95" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
-      <c r="B95" s="116"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="3" t="s">
         <v>45</v>
       </c>
@@ -6161,7 +6166,7 @@
       <c r="E95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F95" s="119"/>
+      <c r="F95" s="77"/>
       <c r="G95" s="82"/>
       <c r="H95" s="83"/>
       <c r="I95" s="83"/>
@@ -6169,8 +6174,8 @@
       <c r="K95" s="83"/>
       <c r="L95" s="83"/>
       <c r="M95" s="84"/>
-      <c r="O95" s="86"/>
-      <c r="P95" s="116"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="74"/>
       <c r="Q95" s="3" t="s">
         <v>45</v>
       </c>
@@ -6180,7 +6185,7 @@
       <c r="S95" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T95" s="119"/>
+      <c r="T95" s="77"/>
       <c r="U95" s="82"/>
       <c r="V95" s="83"/>
       <c r="W95" s="83"/>
@@ -6190,8 +6195,8 @@
       <c r="AA95" s="84"/>
     </row>
     <row r="96" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
-      <c r="B96" s="116"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="74"/>
       <c r="C96" s="3" t="s">
         <v>45</v>
       </c>
@@ -6201,7 +6206,7 @@
       <c r="E96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F96" s="119"/>
+      <c r="F96" s="77"/>
       <c r="G96" s="82"/>
       <c r="H96" s="83"/>
       <c r="I96" s="83"/>
@@ -6209,8 +6214,8 @@
       <c r="K96" s="83"/>
       <c r="L96" s="83"/>
       <c r="M96" s="84"/>
-      <c r="O96" s="86"/>
-      <c r="P96" s="116"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="74"/>
       <c r="Q96" s="3" t="s">
         <v>45</v>
       </c>
@@ -6220,7 +6225,7 @@
       <c r="S96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T96" s="119"/>
+      <c r="T96" s="77"/>
       <c r="U96" s="82"/>
       <c r="V96" s="83"/>
       <c r="W96" s="83"/>
@@ -6230,8 +6235,8 @@
       <c r="AA96" s="84"/>
     </row>
     <row r="97" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
-      <c r="B97" s="116"/>
+      <c r="A97" s="71"/>
+      <c r="B97" s="74"/>
       <c r="C97" s="3" t="s">
         <v>45</v>
       </c>
@@ -6241,7 +6246,7 @@
       <c r="E97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F97" s="119"/>
+      <c r="F97" s="77"/>
       <c r="G97" s="82"/>
       <c r="H97" s="83"/>
       <c r="I97" s="83"/>
@@ -6249,8 +6254,8 @@
       <c r="K97" s="83"/>
       <c r="L97" s="83"/>
       <c r="M97" s="84"/>
-      <c r="O97" s="86"/>
-      <c r="P97" s="116"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="74"/>
       <c r="Q97" s="3" t="s">
         <v>45</v>
       </c>
@@ -6260,7 +6265,7 @@
       <c r="S97" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T97" s="119"/>
+      <c r="T97" s="77"/>
       <c r="U97" s="82"/>
       <c r="V97" s="83"/>
       <c r="W97" s="83"/>
@@ -6270,8 +6275,8 @@
       <c r="AA97" s="84"/>
     </row>
     <row r="98" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
-      <c r="B98" s="116"/>
+      <c r="A98" s="71"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="3" t="s">
         <v>45</v>
       </c>
@@ -6281,7 +6286,7 @@
       <c r="E98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="119"/>
+      <c r="F98" s="77"/>
       <c r="G98" s="82"/>
       <c r="H98" s="83"/>
       <c r="I98" s="83"/>
@@ -6289,8 +6294,8 @@
       <c r="K98" s="83"/>
       <c r="L98" s="83"/>
       <c r="M98" s="84"/>
-      <c r="O98" s="86"/>
-      <c r="P98" s="116"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="74"/>
       <c r="Q98" s="3" t="s">
         <v>45</v>
       </c>
@@ -6300,7 +6305,7 @@
       <c r="S98" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T98" s="119"/>
+      <c r="T98" s="77"/>
       <c r="U98" s="82"/>
       <c r="V98" s="83"/>
       <c r="W98" s="83"/>
@@ -6310,8 +6315,8 @@
       <c r="AA98" s="84"/>
     </row>
     <row r="99" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
-      <c r="B99" s="116"/>
+      <c r="A99" s="71"/>
+      <c r="B99" s="74"/>
       <c r="C99" s="3" t="s">
         <v>45</v>
       </c>
@@ -6321,7 +6326,7 @@
       <c r="E99" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F99" s="119"/>
+      <c r="F99" s="77"/>
       <c r="G99" s="82"/>
       <c r="H99" s="83"/>
       <c r="I99" s="83"/>
@@ -6329,8 +6334,8 @@
       <c r="K99" s="83"/>
       <c r="L99" s="83"/>
       <c r="M99" s="84"/>
-      <c r="O99" s="86"/>
-      <c r="P99" s="116"/>
+      <c r="O99" s="71"/>
+      <c r="P99" s="74"/>
       <c r="Q99" s="3" t="s">
         <v>45</v>
       </c>
@@ -6340,7 +6345,7 @@
       <c r="S99" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T99" s="119"/>
+      <c r="T99" s="77"/>
       <c r="U99" s="82"/>
       <c r="V99" s="83"/>
       <c r="W99" s="83"/>
@@ -6350,8 +6355,8 @@
       <c r="AA99" s="84"/>
     </row>
     <row r="100" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86"/>
-      <c r="B100" s="116"/>
+      <c r="A100" s="71"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="3" t="s">
         <v>45</v>
       </c>
@@ -6361,7 +6366,7 @@
       <c r="E100" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="119"/>
+      <c r="F100" s="77"/>
       <c r="G100" s="82"/>
       <c r="H100" s="83"/>
       <c r="I100" s="83"/>
@@ -6369,8 +6374,8 @@
       <c r="K100" s="83"/>
       <c r="L100" s="83"/>
       <c r="M100" s="84"/>
-      <c r="O100" s="86"/>
-      <c r="P100" s="116"/>
+      <c r="O100" s="71"/>
+      <c r="P100" s="74"/>
       <c r="Q100" s="3" t="s">
         <v>45</v>
       </c>
@@ -6380,7 +6385,7 @@
       <c r="S100" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T100" s="119"/>
+      <c r="T100" s="77"/>
       <c r="U100" s="82"/>
       <c r="V100" s="83"/>
       <c r="W100" s="83"/>
@@ -6390,8 +6395,8 @@
       <c r="AA100" s="84"/>
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="87"/>
-      <c r="B101" s="117"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="75"/>
       <c r="C101" s="4" t="s">
         <v>45</v>
       </c>
@@ -6401,16 +6406,16 @@
       <c r="E101" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F101" s="120"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="69"/>
-      <c r="L101" s="69"/>
-      <c r="M101" s="70"/>
-      <c r="O101" s="87"/>
-      <c r="P101" s="117"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="86"/>
+      <c r="J101" s="86"/>
+      <c r="K101" s="86"/>
+      <c r="L101" s="86"/>
+      <c r="M101" s="87"/>
+      <c r="O101" s="72"/>
+      <c r="P101" s="75"/>
       <c r="Q101" s="4" t="s">
         <v>45</v>
       </c>
@@ -6420,70 +6425,70 @@
       <c r="S101" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T101" s="120"/>
-      <c r="U101" s="68"/>
-      <c r="V101" s="69"/>
-      <c r="W101" s="69"/>
-      <c r="X101" s="69"/>
-      <c r="Y101" s="69"/>
-      <c r="Z101" s="69"/>
-      <c r="AA101" s="70"/>
+      <c r="T101" s="78"/>
+      <c r="U101" s="85"/>
+      <c r="V101" s="86"/>
+      <c r="W101" s="86"/>
+      <c r="X101" s="86"/>
+      <c r="Y101" s="86"/>
+      <c r="Z101" s="86"/>
+      <c r="AA101" s="87"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="132" t="s">
+      <c r="B102" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="C102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="D102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="F102" s="134" t="s">
+      <c r="C102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F102" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="G102" s="135"/>
-      <c r="H102" s="136"/>
-      <c r="I102" s="136"/>
-      <c r="J102" s="136"/>
-      <c r="K102" s="136"/>
-      <c r="L102" s="136"/>
-      <c r="M102" s="137"/>
-      <c r="O102" s="85" t="s">
+      <c r="G102" s="94"/>
+      <c r="H102" s="95"/>
+      <c r="I102" s="95"/>
+      <c r="J102" s="95"/>
+      <c r="K102" s="95"/>
+      <c r="L102" s="95"/>
+      <c r="M102" s="96"/>
+      <c r="O102" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P102" s="132" t="s">
+      <c r="P102" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="Q102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="R102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="S102" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="T102" s="134" t="s">
+      <c r="Q102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="R102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="S102" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="T102" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="U102" s="135"/>
-      <c r="V102" s="136"/>
-      <c r="W102" s="136"/>
-      <c r="X102" s="136"/>
-      <c r="Y102" s="136"/>
-      <c r="Z102" s="136"/>
-      <c r="AA102" s="137"/>
+      <c r="U102" s="94"/>
+      <c r="V102" s="95"/>
+      <c r="W102" s="95"/>
+      <c r="X102" s="95"/>
+      <c r="Y102" s="95"/>
+      <c r="Z102" s="95"/>
+      <c r="AA102" s="96"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="86"/>
-      <c r="B103" s="138"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="89"/>
       <c r="C103" s="66" t="s">
         <v>45</v>
       </c>
@@ -6493,7 +6498,7 @@
       <c r="E103" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="139"/>
+      <c r="F103" s="92"/>
       <c r="G103" s="97"/>
       <c r="H103" s="98"/>
       <c r="I103" s="98"/>
@@ -6501,8 +6506,8 @@
       <c r="K103" s="98"/>
       <c r="L103" s="98"/>
       <c r="M103" s="99"/>
-      <c r="O103" s="86"/>
-      <c r="P103" s="138"/>
+      <c r="O103" s="71"/>
+      <c r="P103" s="89"/>
       <c r="Q103" s="66" t="s">
         <v>45</v>
       </c>
@@ -6512,7 +6517,7 @@
       <c r="S103" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T103" s="139"/>
+      <c r="T103" s="92"/>
       <c r="U103" s="97"/>
       <c r="V103" s="98"/>
       <c r="W103" s="98"/>
@@ -6522,8 +6527,8 @@
       <c r="AA103" s="99"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
-      <c r="B104" s="138"/>
+      <c r="A104" s="71"/>
+      <c r="B104" s="89"/>
       <c r="C104" s="66" t="s">
         <v>45</v>
       </c>
@@ -6533,7 +6538,7 @@
       <c r="E104" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F104" s="139"/>
+      <c r="F104" s="92"/>
       <c r="G104" s="97"/>
       <c r="H104" s="98"/>
       <c r="I104" s="98"/>
@@ -6541,8 +6546,8 @@
       <c r="K104" s="98"/>
       <c r="L104" s="98"/>
       <c r="M104" s="99"/>
-      <c r="O104" s="86"/>
-      <c r="P104" s="138"/>
+      <c r="O104" s="71"/>
+      <c r="P104" s="89"/>
       <c r="Q104" s="66" t="s">
         <v>45</v>
       </c>
@@ -6552,7 +6557,7 @@
       <c r="S104" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T104" s="139"/>
+      <c r="T104" s="92"/>
       <c r="U104" s="97"/>
       <c r="V104" s="98"/>
       <c r="W104" s="98"/>
@@ -6562,8 +6567,8 @@
       <c r="AA104" s="99"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
-      <c r="B105" s="138"/>
+      <c r="A105" s="71"/>
+      <c r="B105" s="89"/>
       <c r="C105" s="66" t="s">
         <v>45</v>
       </c>
@@ -6573,7 +6578,7 @@
       <c r="E105" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F105" s="139"/>
+      <c r="F105" s="92"/>
       <c r="G105" s="97"/>
       <c r="H105" s="98"/>
       <c r="I105" s="98"/>
@@ -6581,8 +6586,8 @@
       <c r="K105" s="98"/>
       <c r="L105" s="98"/>
       <c r="M105" s="99"/>
-      <c r="O105" s="86"/>
-      <c r="P105" s="138"/>
+      <c r="O105" s="71"/>
+      <c r="P105" s="89"/>
       <c r="Q105" s="66" t="s">
         <v>45</v>
       </c>
@@ -6592,7 +6597,7 @@
       <c r="S105" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T105" s="139"/>
+      <c r="T105" s="92"/>
       <c r="U105" s="97"/>
       <c r="V105" s="98"/>
       <c r="W105" s="98"/>
@@ -6602,8 +6607,8 @@
       <c r="AA105" s="99"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
-      <c r="B106" s="138"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="89"/>
       <c r="C106" s="66" t="s">
         <v>45</v>
       </c>
@@ -6613,7 +6618,7 @@
       <c r="E106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F106" s="139"/>
+      <c r="F106" s="92"/>
       <c r="G106" s="97"/>
       <c r="H106" s="98"/>
       <c r="I106" s="98"/>
@@ -6621,8 +6626,8 @@
       <c r="K106" s="98"/>
       <c r="L106" s="98"/>
       <c r="M106" s="99"/>
-      <c r="O106" s="86"/>
-      <c r="P106" s="138"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="89"/>
       <c r="Q106" s="66" t="s">
         <v>45</v>
       </c>
@@ -6632,7 +6637,7 @@
       <c r="S106" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T106" s="139"/>
+      <c r="T106" s="92"/>
       <c r="U106" s="97"/>
       <c r="V106" s="98"/>
       <c r="W106" s="98"/>
@@ -6642,8 +6647,8 @@
       <c r="AA106" s="99"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="86"/>
-      <c r="B107" s="138"/>
+      <c r="A107" s="71"/>
+      <c r="B107" s="89"/>
       <c r="C107" s="66" t="s">
         <v>45</v>
       </c>
@@ -6653,7 +6658,7 @@
       <c r="E107" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F107" s="139"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="97"/>
       <c r="H107" s="98"/>
       <c r="I107" s="98"/>
@@ -6661,8 +6666,8 @@
       <c r="K107" s="98"/>
       <c r="L107" s="98"/>
       <c r="M107" s="99"/>
-      <c r="O107" s="86"/>
-      <c r="P107" s="138"/>
+      <c r="O107" s="71"/>
+      <c r="P107" s="89"/>
       <c r="Q107" s="66" t="s">
         <v>45</v>
       </c>
@@ -6672,7 +6677,7 @@
       <c r="S107" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T107" s="139"/>
+      <c r="T107" s="92"/>
       <c r="U107" s="97"/>
       <c r="V107" s="98"/>
       <c r="W107" s="98"/>
@@ -6682,8 +6687,8 @@
       <c r="AA107" s="99"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="86"/>
-      <c r="B108" s="138"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="89"/>
       <c r="C108" s="66" t="s">
         <v>45</v>
       </c>
@@ -6693,7 +6698,7 @@
       <c r="E108" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="F108" s="139"/>
+      <c r="F108" s="92"/>
       <c r="G108" s="97"/>
       <c r="H108" s="98"/>
       <c r="I108" s="98"/>
@@ -6701,8 +6706,8 @@
       <c r="K108" s="98"/>
       <c r="L108" s="98"/>
       <c r="M108" s="99"/>
-      <c r="O108" s="86"/>
-      <c r="P108" s="138"/>
+      <c r="O108" s="71"/>
+      <c r="P108" s="89"/>
       <c r="Q108" s="66" t="s">
         <v>45</v>
       </c>
@@ -6712,7 +6717,7 @@
       <c r="S108" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T108" s="139"/>
+      <c r="T108" s="92"/>
       <c r="U108" s="97"/>
       <c r="V108" s="98"/>
       <c r="W108" s="98"/>
@@ -6722,50 +6727,50 @@
       <c r="AA108" s="99"/>
     </row>
     <row r="109" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="87"/>
-      <c r="B109" s="140"/>
-      <c r="C109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="D109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="E109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="F109" s="142"/>
-      <c r="G109" s="143"/>
-      <c r="H109" s="144"/>
-      <c r="I109" s="144"/>
-      <c r="J109" s="144"/>
-      <c r="K109" s="144"/>
-      <c r="L109" s="144"/>
-      <c r="M109" s="145"/>
-      <c r="O109" s="87"/>
-      <c r="P109" s="140"/>
-      <c r="Q109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="R109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="S109" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="T109" s="142"/>
-      <c r="U109" s="143"/>
-      <c r="V109" s="144"/>
-      <c r="W109" s="144"/>
-      <c r="X109" s="144"/>
-      <c r="Y109" s="144"/>
-      <c r="Z109" s="144"/>
-      <c r="AA109" s="145"/>
+      <c r="A109" s="72"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" s="93"/>
+      <c r="G109" s="100"/>
+      <c r="H109" s="101"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101"/>
+      <c r="L109" s="101"/>
+      <c r="M109" s="102"/>
+      <c r="O109" s="72"/>
+      <c r="P109" s="90"/>
+      <c r="Q109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="R109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="S109" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="T109" s="93"/>
+      <c r="U109" s="100"/>
+      <c r="V109" s="101"/>
+      <c r="W109" s="101"/>
+      <c r="X109" s="101"/>
+      <c r="Y109" s="101"/>
+      <c r="Z109" s="101"/>
+      <c r="AA109" s="102"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B110" s="115" t="s">
+      <c r="B110" s="73" t="s">
         <v>149</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -6777,20 +6782,20 @@
       <c r="E110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F110" s="118" t="s">
+      <c r="F110" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="G110" s="88"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
-      <c r="L110" s="89"/>
-      <c r="M110" s="90"/>
-      <c r="O110" s="85" t="s">
+      <c r="G110" s="79"/>
+      <c r="H110" s="80"/>
+      <c r="I110" s="80"/>
+      <c r="J110" s="80"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="80"/>
+      <c r="M110" s="81"/>
+      <c r="O110" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P110" s="115" t="s">
+      <c r="P110" s="73" t="s">
         <v>155</v>
       </c>
       <c r="Q110" s="2" t="s">
@@ -6802,20 +6807,20 @@
       <c r="S110" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T110" s="118" t="s">
+      <c r="T110" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="U110" s="88"/>
-      <c r="V110" s="89"/>
-      <c r="W110" s="89"/>
-      <c r="X110" s="89"/>
-      <c r="Y110" s="89"/>
-      <c r="Z110" s="89"/>
-      <c r="AA110" s="90"/>
+      <c r="U110" s="79"/>
+      <c r="V110" s="80"/>
+      <c r="W110" s="80"/>
+      <c r="X110" s="80"/>
+      <c r="Y110" s="80"/>
+      <c r="Z110" s="80"/>
+      <c r="AA110" s="81"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
-      <c r="B111" s="116"/>
+      <c r="A111" s="71"/>
+      <c r="B111" s="74"/>
       <c r="C111" s="3" t="s">
         <v>45</v>
       </c>
@@ -6825,7 +6830,7 @@
       <c r="E111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F111" s="119"/>
+      <c r="F111" s="77"/>
       <c r="G111" s="82"/>
       <c r="H111" s="83"/>
       <c r="I111" s="83"/>
@@ -6833,8 +6838,8 @@
       <c r="K111" s="83"/>
       <c r="L111" s="83"/>
       <c r="M111" s="84"/>
-      <c r="O111" s="86"/>
-      <c r="P111" s="116"/>
+      <c r="O111" s="71"/>
+      <c r="P111" s="74"/>
       <c r="Q111" s="3" t="s">
         <v>45</v>
       </c>
@@ -6844,7 +6849,7 @@
       <c r="S111" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T111" s="119"/>
+      <c r="T111" s="77"/>
       <c r="U111" s="82"/>
       <c r="V111" s="83"/>
       <c r="W111" s="83"/>
@@ -6854,8 +6859,8 @@
       <c r="AA111" s="84"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
-      <c r="B112" s="116"/>
+      <c r="A112" s="71"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="3" t="s">
         <v>45</v>
       </c>
@@ -6865,7 +6870,7 @@
       <c r="E112" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F112" s="119"/>
+      <c r="F112" s="77"/>
       <c r="G112" s="82"/>
       <c r="H112" s="83"/>
       <c r="I112" s="83"/>
@@ -6873,8 +6878,8 @@
       <c r="K112" s="83"/>
       <c r="L112" s="83"/>
       <c r="M112" s="84"/>
-      <c r="O112" s="86"/>
-      <c r="P112" s="116"/>
+      <c r="O112" s="71"/>
+      <c r="P112" s="74"/>
       <c r="Q112" s="3" t="s">
         <v>45</v>
       </c>
@@ -6884,7 +6889,7 @@
       <c r="S112" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T112" s="119"/>
+      <c r="T112" s="77"/>
       <c r="U112" s="82"/>
       <c r="V112" s="83"/>
       <c r="W112" s="83"/>
@@ -6894,8 +6899,8 @@
       <c r="AA112" s="84"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
-      <c r="B113" s="116"/>
+      <c r="A113" s="71"/>
+      <c r="B113" s="74"/>
       <c r="C113" s="3" t="s">
         <v>45</v>
       </c>
@@ -6905,7 +6910,7 @@
       <c r="E113" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F113" s="119"/>
+      <c r="F113" s="77"/>
       <c r="G113" s="82"/>
       <c r="H113" s="83"/>
       <c r="I113" s="83"/>
@@ -6913,8 +6918,8 @@
       <c r="K113" s="83"/>
       <c r="L113" s="83"/>
       <c r="M113" s="84"/>
-      <c r="O113" s="86"/>
-      <c r="P113" s="116"/>
+      <c r="O113" s="71"/>
+      <c r="P113" s="74"/>
       <c r="Q113" s="3" t="s">
         <v>45</v>
       </c>
@@ -6924,7 +6929,7 @@
       <c r="S113" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T113" s="119"/>
+      <c r="T113" s="77"/>
       <c r="U113" s="82"/>
       <c r="V113" s="83"/>
       <c r="W113" s="83"/>
@@ -6934,8 +6939,8 @@
       <c r="AA113" s="84"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="116"/>
+      <c r="A114" s="71"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="3" t="s">
         <v>45</v>
       </c>
@@ -6945,7 +6950,7 @@
       <c r="E114" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F114" s="119"/>
+      <c r="F114" s="77"/>
       <c r="G114" s="82"/>
       <c r="H114" s="83"/>
       <c r="I114" s="83"/>
@@ -6953,8 +6958,8 @@
       <c r="K114" s="83"/>
       <c r="L114" s="83"/>
       <c r="M114" s="84"/>
-      <c r="O114" s="86"/>
-      <c r="P114" s="116"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="74"/>
       <c r="Q114" s="3" t="s">
         <v>45</v>
       </c>
@@ -6964,7 +6969,7 @@
       <c r="S114" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T114" s="119"/>
+      <c r="T114" s="77"/>
       <c r="U114" s="82"/>
       <c r="V114" s="83"/>
       <c r="W114" s="83"/>
@@ -6974,8 +6979,8 @@
       <c r="AA114" s="84"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
-      <c r="B115" s="116"/>
+      <c r="A115" s="71"/>
+      <c r="B115" s="74"/>
       <c r="C115" s="3" t="s">
         <v>45</v>
       </c>
@@ -6985,7 +6990,7 @@
       <c r="E115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F115" s="119"/>
+      <c r="F115" s="77"/>
       <c r="G115" s="82"/>
       <c r="H115" s="83"/>
       <c r="I115" s="83"/>
@@ -6993,8 +6998,8 @@
       <c r="K115" s="83"/>
       <c r="L115" s="83"/>
       <c r="M115" s="84"/>
-      <c r="O115" s="86"/>
-      <c r="P115" s="116"/>
+      <c r="O115" s="71"/>
+      <c r="P115" s="74"/>
       <c r="Q115" s="3" t="s">
         <v>45</v>
       </c>
@@ -7004,7 +7009,7 @@
       <c r="S115" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T115" s="119"/>
+      <c r="T115" s="77"/>
       <c r="U115" s="82"/>
       <c r="V115" s="83"/>
       <c r="W115" s="83"/>
@@ -7014,8 +7019,8 @@
       <c r="AA115" s="84"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
-      <c r="B116" s="116"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="3" t="s">
         <v>45</v>
       </c>
@@ -7025,7 +7030,7 @@
       <c r="E116" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F116" s="119"/>
+      <c r="F116" s="77"/>
       <c r="G116" s="82"/>
       <c r="H116" s="83"/>
       <c r="I116" s="83"/>
@@ -7033,8 +7038,8 @@
       <c r="K116" s="83"/>
       <c r="L116" s="83"/>
       <c r="M116" s="84"/>
-      <c r="O116" s="86"/>
-      <c r="P116" s="116"/>
+      <c r="O116" s="71"/>
+      <c r="P116" s="74"/>
       <c r="Q116" s="3" t="s">
         <v>45</v>
       </c>
@@ -7044,7 +7049,7 @@
       <c r="S116" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T116" s="119"/>
+      <c r="T116" s="77"/>
       <c r="U116" s="82"/>
       <c r="V116" s="83"/>
       <c r="W116" s="83"/>
@@ -7054,8 +7059,8 @@
       <c r="AA116" s="84"/>
     </row>
     <row r="117" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="87"/>
-      <c r="B117" s="117"/>
+      <c r="A117" s="72"/>
+      <c r="B117" s="75"/>
       <c r="C117" s="4" t="s">
         <v>45</v>
       </c>
@@ -7065,16 +7070,16 @@
       <c r="E117" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F117" s="120"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="69"/>
-      <c r="I117" s="69"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="70"/>
-      <c r="O117" s="87"/>
-      <c r="P117" s="117"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="86"/>
+      <c r="I117" s="86"/>
+      <c r="J117" s="86"/>
+      <c r="K117" s="86"/>
+      <c r="L117" s="86"/>
+      <c r="M117" s="87"/>
+      <c r="O117" s="72"/>
+      <c r="P117" s="75"/>
       <c r="Q117" s="4" t="s">
         <v>45</v>
       </c>
@@ -7084,20 +7089,20 @@
       <c r="S117" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T117" s="120"/>
-      <c r="U117" s="68"/>
-      <c r="V117" s="69"/>
-      <c r="W117" s="69"/>
-      <c r="X117" s="69"/>
-      <c r="Y117" s="69"/>
-      <c r="Z117" s="69"/>
-      <c r="AA117" s="70"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="85"/>
+      <c r="V117" s="86"/>
+      <c r="W117" s="86"/>
+      <c r="X117" s="86"/>
+      <c r="Y117" s="86"/>
+      <c r="Z117" s="86"/>
+      <c r="AA117" s="87"/>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A118" s="85" t="s">
+      <c r="A118" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B118" s="115" t="s">
+      <c r="B118" s="73" t="s">
         <v>150</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -7109,20 +7114,20 @@
       <c r="E118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F118" s="118" t="s">
+      <c r="F118" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="G118" s="88"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="89"/>
-      <c r="M118" s="90"/>
-      <c r="O118" s="85" t="s">
+      <c r="G118" s="79"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="80"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="80"/>
+      <c r="M118" s="81"/>
+      <c r="O118" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="P118" s="115" t="s">
+      <c r="P118" s="73" t="s">
         <v>156</v>
       </c>
       <c r="Q118" s="2" t="s">
@@ -7134,20 +7139,20 @@
       <c r="S118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T118" s="118" t="s">
+      <c r="T118" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="U118" s="88"/>
-      <c r="V118" s="89"/>
-      <c r="W118" s="89"/>
-      <c r="X118" s="89"/>
-      <c r="Y118" s="89"/>
-      <c r="Z118" s="89"/>
-      <c r="AA118" s="90"/>
+      <c r="U118" s="79"/>
+      <c r="V118" s="80"/>
+      <c r="W118" s="80"/>
+      <c r="X118" s="80"/>
+      <c r="Y118" s="80"/>
+      <c r="Z118" s="80"/>
+      <c r="AA118" s="81"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
-      <c r="B119" s="116"/>
+      <c r="A119" s="71"/>
+      <c r="B119" s="74"/>
       <c r="C119" s="3" t="s">
         <v>45</v>
       </c>
@@ -7157,7 +7162,7 @@
       <c r="E119" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F119" s="119"/>
+      <c r="F119" s="77"/>
       <c r="G119" s="82"/>
       <c r="H119" s="83"/>
       <c r="I119" s="83"/>
@@ -7165,8 +7170,8 @@
       <c r="K119" s="83"/>
       <c r="L119" s="83"/>
       <c r="M119" s="84"/>
-      <c r="O119" s="86"/>
-      <c r="P119" s="116"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="74"/>
       <c r="Q119" s="3" t="s">
         <v>45</v>
       </c>
@@ -7176,7 +7181,7 @@
       <c r="S119" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T119" s="119"/>
+      <c r="T119" s="77"/>
       <c r="U119" s="82"/>
       <c r="V119" s="83"/>
       <c r="W119" s="83"/>
@@ -7186,8 +7191,8 @@
       <c r="AA119" s="84"/>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
-      <c r="B120" s="116"/>
+      <c r="A120" s="71"/>
+      <c r="B120" s="74"/>
       <c r="C120" s="3" t="s">
         <v>45</v>
       </c>
@@ -7197,7 +7202,7 @@
       <c r="E120" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F120" s="119"/>
+      <c r="F120" s="77"/>
       <c r="G120" s="82"/>
       <c r="H120" s="83"/>
       <c r="I120" s="83"/>
@@ -7205,8 +7210,8 @@
       <c r="K120" s="83"/>
       <c r="L120" s="83"/>
       <c r="M120" s="84"/>
-      <c r="O120" s="86"/>
-      <c r="P120" s="116"/>
+      <c r="O120" s="71"/>
+      <c r="P120" s="74"/>
       <c r="Q120" s="3" t="s">
         <v>45</v>
       </c>
@@ -7216,7 +7221,7 @@
       <c r="S120" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T120" s="119"/>
+      <c r="T120" s="77"/>
       <c r="U120" s="82"/>
       <c r="V120" s="83"/>
       <c r="W120" s="83"/>
@@ -7226,8 +7231,8 @@
       <c r="AA120" s="84"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
-      <c r="B121" s="116"/>
+      <c r="A121" s="71"/>
+      <c r="B121" s="74"/>
       <c r="C121" s="3" t="s">
         <v>45</v>
       </c>
@@ -7237,7 +7242,7 @@
       <c r="E121" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F121" s="119"/>
+      <c r="F121" s="77"/>
       <c r="G121" s="82"/>
       <c r="H121" s="83"/>
       <c r="I121" s="83"/>
@@ -7245,8 +7250,8 @@
       <c r="K121" s="83"/>
       <c r="L121" s="83"/>
       <c r="M121" s="84"/>
-      <c r="O121" s="86"/>
-      <c r="P121" s="116"/>
+      <c r="O121" s="71"/>
+      <c r="P121" s="74"/>
       <c r="Q121" s="3" t="s">
         <v>45</v>
       </c>
@@ -7256,7 +7261,7 @@
       <c r="S121" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T121" s="119"/>
+      <c r="T121" s="77"/>
       <c r="U121" s="82"/>
       <c r="V121" s="83"/>
       <c r="W121" s="83"/>
@@ -7266,8 +7271,8 @@
       <c r="AA121" s="84"/>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
-      <c r="B122" s="116"/>
+      <c r="A122" s="71"/>
+      <c r="B122" s="74"/>
       <c r="C122" s="3" t="s">
         <v>45</v>
       </c>
@@ -7277,7 +7282,7 @@
       <c r="E122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F122" s="119"/>
+      <c r="F122" s="77"/>
       <c r="G122" s="82"/>
       <c r="H122" s="83"/>
       <c r="I122" s="83"/>
@@ -7285,8 +7290,8 @@
       <c r="K122" s="83"/>
       <c r="L122" s="83"/>
       <c r="M122" s="84"/>
-      <c r="O122" s="86"/>
-      <c r="P122" s="116"/>
+      <c r="O122" s="71"/>
+      <c r="P122" s="74"/>
       <c r="Q122" s="3" t="s">
         <v>45</v>
       </c>
@@ -7296,7 +7301,7 @@
       <c r="S122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T122" s="119"/>
+      <c r="T122" s="77"/>
       <c r="U122" s="82"/>
       <c r="V122" s="83"/>
       <c r="W122" s="83"/>
@@ -7306,8 +7311,8 @@
       <c r="AA122" s="84"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
-      <c r="B123" s="116"/>
+      <c r="A123" s="71"/>
+      <c r="B123" s="74"/>
       <c r="C123" s="3" t="s">
         <v>45</v>
       </c>
@@ -7317,7 +7322,7 @@
       <c r="E123" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F123" s="119"/>
+      <c r="F123" s="77"/>
       <c r="G123" s="82"/>
       <c r="H123" s="83"/>
       <c r="I123" s="83"/>
@@ -7325,8 +7330,8 @@
       <c r="K123" s="83"/>
       <c r="L123" s="83"/>
       <c r="M123" s="84"/>
-      <c r="O123" s="86"/>
-      <c r="P123" s="116"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="74"/>
       <c r="Q123" s="3" t="s">
         <v>45</v>
       </c>
@@ -7336,7 +7341,7 @@
       <c r="S123" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T123" s="119"/>
+      <c r="T123" s="77"/>
       <c r="U123" s="82"/>
       <c r="V123" s="83"/>
       <c r="W123" s="83"/>
@@ -7346,8 +7351,8 @@
       <c r="AA123" s="84"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
-      <c r="B124" s="116"/>
+      <c r="A124" s="71"/>
+      <c r="B124" s="74"/>
       <c r="C124" s="3" t="s">
         <v>45</v>
       </c>
@@ -7357,7 +7362,7 @@
       <c r="E124" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F124" s="119"/>
+      <c r="F124" s="77"/>
       <c r="G124" s="82"/>
       <c r="H124" s="83"/>
       <c r="I124" s="83"/>
@@ -7365,8 +7370,8 @@
       <c r="K124" s="83"/>
       <c r="L124" s="83"/>
       <c r="M124" s="84"/>
-      <c r="O124" s="86"/>
-      <c r="P124" s="116"/>
+      <c r="O124" s="71"/>
+      <c r="P124" s="74"/>
       <c r="Q124" s="3" t="s">
         <v>45</v>
       </c>
@@ -7376,7 +7381,7 @@
       <c r="S124" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T124" s="119"/>
+      <c r="T124" s="77"/>
       <c r="U124" s="82"/>
       <c r="V124" s="83"/>
       <c r="W124" s="83"/>
@@ -7386,8 +7391,8 @@
       <c r="AA124" s="84"/>
     </row>
     <row r="125" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="87"/>
-      <c r="B125" s="117"/>
+      <c r="A125" s="72"/>
+      <c r="B125" s="75"/>
       <c r="C125" s="4" t="s">
         <v>45</v>
       </c>
@@ -7397,16 +7402,16 @@
       <c r="E125" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F125" s="120"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="69"/>
-      <c r="J125" s="69"/>
-      <c r="K125" s="69"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="70"/>
-      <c r="O125" s="87"/>
-      <c r="P125" s="117"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="86"/>
+      <c r="I125" s="86"/>
+      <c r="J125" s="86"/>
+      <c r="K125" s="86"/>
+      <c r="L125" s="86"/>
+      <c r="M125" s="87"/>
+      <c r="O125" s="72"/>
+      <c r="P125" s="75"/>
       <c r="Q125" s="4" t="s">
         <v>45</v>
       </c>
@@ -7416,83 +7421,220 @@
       <c r="S125" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T125" s="120"/>
-      <c r="U125" s="68"/>
-      <c r="V125" s="69"/>
-      <c r="W125" s="69"/>
-      <c r="X125" s="69"/>
-      <c r="Y125" s="69"/>
-      <c r="Z125" s="69"/>
-      <c r="AA125" s="70"/>
+      <c r="T125" s="78"/>
+      <c r="U125" s="85"/>
+      <c r="V125" s="86"/>
+      <c r="W125" s="86"/>
+      <c r="X125" s="86"/>
+      <c r="Y125" s="86"/>
+      <c r="Z125" s="86"/>
+      <c r="AA125" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="O118:O125"/>
-    <mergeCell ref="P118:P125"/>
-    <mergeCell ref="T118:T125"/>
-    <mergeCell ref="U118:AA118"/>
-    <mergeCell ref="U119:AA119"/>
-    <mergeCell ref="U120:AA120"/>
-    <mergeCell ref="U121:AA121"/>
-    <mergeCell ref="U122:AA122"/>
-    <mergeCell ref="U123:AA123"/>
-    <mergeCell ref="U124:AA124"/>
-    <mergeCell ref="U125:AA125"/>
-    <mergeCell ref="O110:O117"/>
-    <mergeCell ref="P110:P117"/>
-    <mergeCell ref="T110:T117"/>
-    <mergeCell ref="U110:AA110"/>
-    <mergeCell ref="U111:AA111"/>
-    <mergeCell ref="U112:AA112"/>
-    <mergeCell ref="U113:AA113"/>
-    <mergeCell ref="U114:AA114"/>
-    <mergeCell ref="U115:AA115"/>
-    <mergeCell ref="U116:AA116"/>
-    <mergeCell ref="U117:AA117"/>
-    <mergeCell ref="O102:O109"/>
-    <mergeCell ref="P102:P109"/>
-    <mergeCell ref="T102:T109"/>
-    <mergeCell ref="U102:AA102"/>
-    <mergeCell ref="U103:AA103"/>
-    <mergeCell ref="U104:AA104"/>
-    <mergeCell ref="U105:AA105"/>
-    <mergeCell ref="U106:AA106"/>
-    <mergeCell ref="U107:AA107"/>
-    <mergeCell ref="U108:AA108"/>
-    <mergeCell ref="U109:AA109"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="F118:F125"/>
-    <mergeCell ref="G118:M118"/>
-    <mergeCell ref="G119:M119"/>
-    <mergeCell ref="G120:M120"/>
-    <mergeCell ref="G121:M121"/>
-    <mergeCell ref="G122:M122"/>
-    <mergeCell ref="G123:M123"/>
-    <mergeCell ref="G124:M124"/>
-    <mergeCell ref="G125:M125"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="F110:F117"/>
-    <mergeCell ref="G110:M110"/>
-    <mergeCell ref="G111:M111"/>
-    <mergeCell ref="G112:M112"/>
-    <mergeCell ref="G113:M113"/>
-    <mergeCell ref="G114:M114"/>
-    <mergeCell ref="G115:M115"/>
-    <mergeCell ref="G116:M116"/>
-    <mergeCell ref="G117:M117"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="F102:F109"/>
-    <mergeCell ref="G102:M102"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="G104:M104"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="G106:M106"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="G109:M109"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="U40:AA40"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="U25:AA25"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="U41:AA41"/>
+    <mergeCell ref="A35:M36"/>
+    <mergeCell ref="O35:AA36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="O38:O45"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="U42:AA42"/>
+    <mergeCell ref="U43:AA43"/>
+    <mergeCell ref="U44:AA44"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="A1:AA3"/>
+    <mergeCell ref="A7:M8"/>
+    <mergeCell ref="O7:AA8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="U65:AA65"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="G61:M61"/>
+    <mergeCell ref="G62:M62"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G55:M55"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="G58:M58"/>
+    <mergeCell ref="U55:AA55"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="O46:O53"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="G49:M49"/>
+    <mergeCell ref="U73:AA73"/>
+    <mergeCell ref="U74:AA74"/>
+    <mergeCell ref="U75:AA75"/>
+    <mergeCell ref="G67:M67"/>
+    <mergeCell ref="U46:AA46"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="U54:AA54"/>
+    <mergeCell ref="U52:AA52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="U53:AA53"/>
+    <mergeCell ref="U47:AA47"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="U49:AA49"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="U50:AA50"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="U51:AA51"/>
+    <mergeCell ref="U58:AA58"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="U60:AA60"/>
+    <mergeCell ref="U61:AA61"/>
+    <mergeCell ref="U62:AA62"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="U64:AA64"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="U33:AA33"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="U45:AA45"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="G82:M82"/>
+    <mergeCell ref="G83:M83"/>
+    <mergeCell ref="G84:M84"/>
+    <mergeCell ref="G85:M85"/>
+    <mergeCell ref="G68:M68"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="G71:M71"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="G74:M74"/>
+    <mergeCell ref="G75:M75"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="U80:AA80"/>
+    <mergeCell ref="U56:AA56"/>
+    <mergeCell ref="U57:AA57"/>
+    <mergeCell ref="U99:AA99"/>
+    <mergeCell ref="G100:M100"/>
+    <mergeCell ref="U100:AA100"/>
+    <mergeCell ref="G101:M101"/>
+    <mergeCell ref="U101:AA101"/>
+    <mergeCell ref="O86:O93"/>
+    <mergeCell ref="P86:P93"/>
+    <mergeCell ref="T86:T93"/>
+    <mergeCell ref="U86:AA86"/>
+    <mergeCell ref="U87:AA87"/>
+    <mergeCell ref="U88:AA88"/>
+    <mergeCell ref="U89:AA89"/>
+    <mergeCell ref="U90:AA90"/>
+    <mergeCell ref="U91:AA91"/>
+    <mergeCell ref="U92:AA92"/>
+    <mergeCell ref="U93:AA93"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="G87:M87"/>
+    <mergeCell ref="G88:M88"/>
+    <mergeCell ref="G89:M89"/>
+    <mergeCell ref="G90:M90"/>
+    <mergeCell ref="G95:M95"/>
+    <mergeCell ref="U95:AA95"/>
+    <mergeCell ref="G96:M96"/>
+    <mergeCell ref="U96:AA96"/>
+    <mergeCell ref="G97:M97"/>
+    <mergeCell ref="U97:AA97"/>
+    <mergeCell ref="G64:M64"/>
+    <mergeCell ref="G65:M65"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="U81:AA81"/>
+    <mergeCell ref="U66:AA66"/>
+    <mergeCell ref="U67:AA67"/>
+    <mergeCell ref="U68:AA68"/>
+    <mergeCell ref="U69:AA69"/>
+    <mergeCell ref="U70:AA70"/>
+    <mergeCell ref="U82:AA82"/>
+    <mergeCell ref="P78:P85"/>
+    <mergeCell ref="T70:T77"/>
+    <mergeCell ref="U83:AA83"/>
+    <mergeCell ref="U84:AA84"/>
+    <mergeCell ref="U85:AA85"/>
+    <mergeCell ref="U76:AA76"/>
+    <mergeCell ref="U77:AA77"/>
+    <mergeCell ref="U78:AA78"/>
+    <mergeCell ref="U79:AA79"/>
+    <mergeCell ref="U71:AA71"/>
+    <mergeCell ref="U72:AA72"/>
     <mergeCell ref="G98:M98"/>
     <mergeCell ref="U98:AA98"/>
     <mergeCell ref="B70:B77"/>
@@ -7517,209 +7659,72 @@
     <mergeCell ref="G92:M92"/>
     <mergeCell ref="G93:M93"/>
     <mergeCell ref="U94:AA94"/>
-    <mergeCell ref="U96:AA96"/>
-    <mergeCell ref="G97:M97"/>
-    <mergeCell ref="U97:AA97"/>
-    <mergeCell ref="G64:M64"/>
-    <mergeCell ref="G65:M65"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="U81:AA81"/>
-    <mergeCell ref="U66:AA66"/>
-    <mergeCell ref="U67:AA67"/>
-    <mergeCell ref="U68:AA68"/>
-    <mergeCell ref="U69:AA69"/>
-    <mergeCell ref="U70:AA70"/>
-    <mergeCell ref="U82:AA82"/>
-    <mergeCell ref="P78:P85"/>
-    <mergeCell ref="T70:T77"/>
-    <mergeCell ref="U83:AA83"/>
-    <mergeCell ref="U84:AA84"/>
-    <mergeCell ref="U85:AA85"/>
-    <mergeCell ref="U99:AA99"/>
-    <mergeCell ref="G100:M100"/>
-    <mergeCell ref="U100:AA100"/>
-    <mergeCell ref="G101:M101"/>
-    <mergeCell ref="U101:AA101"/>
-    <mergeCell ref="O86:O93"/>
-    <mergeCell ref="P86:P93"/>
-    <mergeCell ref="T86:T93"/>
-    <mergeCell ref="U86:AA86"/>
-    <mergeCell ref="U87:AA87"/>
-    <mergeCell ref="U88:AA88"/>
-    <mergeCell ref="U89:AA89"/>
-    <mergeCell ref="U90:AA90"/>
-    <mergeCell ref="U91:AA91"/>
-    <mergeCell ref="U92:AA92"/>
-    <mergeCell ref="U93:AA93"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="G87:M87"/>
-    <mergeCell ref="G88:M88"/>
-    <mergeCell ref="G89:M89"/>
-    <mergeCell ref="G90:M90"/>
-    <mergeCell ref="G95:M95"/>
-    <mergeCell ref="U95:AA95"/>
-    <mergeCell ref="G96:M96"/>
-    <mergeCell ref="U45:AA45"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="G82:M82"/>
-    <mergeCell ref="G83:M83"/>
-    <mergeCell ref="G84:M84"/>
-    <mergeCell ref="G85:M85"/>
-    <mergeCell ref="G68:M68"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="G71:M71"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="G74:M74"/>
-    <mergeCell ref="G75:M75"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="U80:AA80"/>
-    <mergeCell ref="U56:AA56"/>
-    <mergeCell ref="U57:AA57"/>
-    <mergeCell ref="U58:AA58"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="U60:AA60"/>
-    <mergeCell ref="U61:AA61"/>
-    <mergeCell ref="U62:AA62"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="U64:AA64"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="U76:AA76"/>
-    <mergeCell ref="U77:AA77"/>
-    <mergeCell ref="U78:AA78"/>
-    <mergeCell ref="U79:AA79"/>
-    <mergeCell ref="U71:AA71"/>
-    <mergeCell ref="U72:AA72"/>
-    <mergeCell ref="U73:AA73"/>
-    <mergeCell ref="U74:AA74"/>
-    <mergeCell ref="U75:AA75"/>
-    <mergeCell ref="G67:M67"/>
-    <mergeCell ref="U46:AA46"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="U54:AA54"/>
-    <mergeCell ref="U52:AA52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="U53:AA53"/>
-    <mergeCell ref="U47:AA47"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="U49:AA49"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="U65:AA65"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="G61:M61"/>
-    <mergeCell ref="G62:M62"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G55:M55"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="G58:M58"/>
-    <mergeCell ref="U55:AA55"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="O46:O53"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="U37:AA37"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="G49:M49"/>
-    <mergeCell ref="A1:AA3"/>
-    <mergeCell ref="A7:M8"/>
-    <mergeCell ref="O7:AA8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="U33:AA33"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="U50:AA50"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="U51:AA51"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="U40:AA40"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="U25:AA25"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="U41:AA41"/>
-    <mergeCell ref="A35:M36"/>
-    <mergeCell ref="O35:AA36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="O38:O45"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="U42:AA42"/>
-    <mergeCell ref="U43:AA43"/>
-    <mergeCell ref="U44:AA44"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="F102:F109"/>
+    <mergeCell ref="G102:M102"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="G104:M104"/>
+    <mergeCell ref="G105:M105"/>
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="G109:M109"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="F110:F117"/>
+    <mergeCell ref="G110:M110"/>
+    <mergeCell ref="G111:M111"/>
+    <mergeCell ref="G112:M112"/>
+    <mergeCell ref="G113:M113"/>
+    <mergeCell ref="G114:M114"/>
+    <mergeCell ref="G115:M115"/>
+    <mergeCell ref="G116:M116"/>
+    <mergeCell ref="G117:M117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="G118:M118"/>
+    <mergeCell ref="G119:M119"/>
+    <mergeCell ref="G120:M120"/>
+    <mergeCell ref="G121:M121"/>
+    <mergeCell ref="G122:M122"/>
+    <mergeCell ref="G123:M123"/>
+    <mergeCell ref="G124:M124"/>
+    <mergeCell ref="G125:M125"/>
+    <mergeCell ref="O102:O109"/>
+    <mergeCell ref="P102:P109"/>
+    <mergeCell ref="T102:T109"/>
+    <mergeCell ref="U102:AA102"/>
+    <mergeCell ref="U103:AA103"/>
+    <mergeCell ref="U104:AA104"/>
+    <mergeCell ref="U105:AA105"/>
+    <mergeCell ref="U106:AA106"/>
+    <mergeCell ref="U107:AA107"/>
+    <mergeCell ref="U108:AA108"/>
+    <mergeCell ref="U109:AA109"/>
+    <mergeCell ref="O110:O117"/>
+    <mergeCell ref="P110:P117"/>
+    <mergeCell ref="T110:T117"/>
+    <mergeCell ref="U110:AA110"/>
+    <mergeCell ref="U111:AA111"/>
+    <mergeCell ref="U112:AA112"/>
+    <mergeCell ref="U113:AA113"/>
+    <mergeCell ref="U114:AA114"/>
+    <mergeCell ref="U115:AA115"/>
+    <mergeCell ref="U116:AA116"/>
+    <mergeCell ref="U117:AA117"/>
+    <mergeCell ref="O118:O125"/>
+    <mergeCell ref="P118:P125"/>
+    <mergeCell ref="T118:T125"/>
+    <mergeCell ref="U118:AA118"/>
+    <mergeCell ref="U119:AA119"/>
+    <mergeCell ref="U120:AA120"/>
+    <mergeCell ref="U121:AA121"/>
+    <mergeCell ref="U122:AA122"/>
+    <mergeCell ref="U123:AA123"/>
+    <mergeCell ref="U124:AA124"/>
+    <mergeCell ref="U125:AA125"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7727,7 +7732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7746,54 +7751,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126" t="s">
+      <c r="K2" s="135"/>
+      <c r="L2" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126" t="s">
+      <c r="M2" s="135"/>
+      <c r="N2" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="127"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="59"/>
       <c r="J3" s="55" t="s">
         <v>118</v>
@@ -7818,16 +7823,16 @@
       <c r="A4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="121" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J4" s="56" t="s">
@@ -7853,16 +7858,16 @@
       <c r="A5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="122"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="52" t="s">
         <v>17</v>
       </c>
@@ -7886,16 +7891,16 @@
       <c r="A6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="122"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
       <c r="L6" s="52"/>
@@ -7911,16 +7916,16 @@
       <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="123"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="60"/>
       <c r="K7" s="61"/>
       <c r="L7" s="60"/>
@@ -7936,14 +7941,14 @@
       <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="124" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="140" t="s">
         <v>121</v>
       </c>
       <c r="J8" s="63" t="s">
@@ -7969,14 +7974,14 @@
       <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="122"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="52" t="s">
         <v>17</v>
       </c>
@@ -8000,14 +8005,14 @@
       <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="122"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="52"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
@@ -8023,14 +8028,14 @@
       <c r="A11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="125"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="141"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="54"/>
@@ -8046,16 +8051,16 @@
       <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="121" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="137" t="s">
         <v>123</v>
       </c>
       <c r="J12" s="56" t="s">
@@ -8081,16 +8086,16 @@
       <c r="A13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="122"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="52" t="s">
         <v>17</v>
       </c>
@@ -8114,14 +8119,14 @@
       <c r="A14" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="122"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="138"/>
       <c r="J14" s="52"/>
       <c r="K14" s="51"/>
       <c r="L14" s="52"/>
@@ -8137,14 +8142,14 @@
       <c r="A15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="139"/>
       <c r="J15" s="60"/>
       <c r="K15" s="61"/>
       <c r="L15" s="60"/>
@@ -8160,14 +8165,14 @@
       <c r="A16" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="124" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="140" t="s">
         <v>124</v>
       </c>
       <c r="J16" s="63" t="s">
@@ -8193,14 +8198,14 @@
       <c r="A17" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="122"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="138"/>
       <c r="J17" s="52" t="s">
         <v>17</v>
       </c>
@@ -8224,14 +8229,14 @@
       <c r="A18" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="122"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="138"/>
       <c r="J18" s="52"/>
       <c r="K18" s="51"/>
       <c r="L18" s="52"/>
@@ -8247,14 +8252,14 @@
       <c r="A19" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="125"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="141"/>
       <c r="J19" s="54"/>
       <c r="K19" s="55"/>
       <c r="L19" s="54"/>
@@ -8268,259 +8273,262 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="79"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="130"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="102"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="108"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="73"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="73"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="105"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="102"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="73"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="73"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="73"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="108"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="73"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="73"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="73"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="114"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="A21:H22"/>
     <mergeCell ref="B23:H23"/>
@@ -8537,21 +8545,18 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8559,7 +8564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8577,47 +8582,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="str">
+      <c r="A1" s="144" t="str">
         <f>Signaly!A1</f>
         <v>Madeta 1</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="129"/>
-      <c r="F6" s="128" t="s">
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="143"/>
+      <c r="F6" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="129"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
